--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT3" t="n">
         <v>0.83</v>
@@ -1309,7 +1309,7 @@
         <v>1.59</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.72</v>
@@ -2527,7 +2527,7 @@
         <v>2.32</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.56</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT18" t="n">
         <v>0.71</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT19" t="n">
         <v>1.06</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU20" t="n">
         <v>1.46</v>
@@ -4963,7 +4963,7 @@
         <v>1.68</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.11</v>
@@ -6790,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.06</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>2.32</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU38" t="n">
         <v>1.42</v>
@@ -9023,7 +9023,7 @@
         <v>1.18</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU42" t="n">
         <v>1.11</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.11</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.07</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT55" t="n">
         <v>1</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT56" t="n">
         <v>1.06</v>
@@ -12474,7 +12474,7 @@
         <v>1.53</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU59" t="n">
         <v>0</v>
@@ -12677,7 +12677,7 @@
         <v>1.84</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU60" t="n">
         <v>1.08</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>1.47</v>
@@ -13692,7 +13692,7 @@
         <v>1.32</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU65" t="n">
         <v>1.41</v>
@@ -15313,10 +15313,10 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU73" t="n">
         <v>1.67</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT76" t="n">
         <v>1.47</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -17549,7 +17549,7 @@
         <v>1.68</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU84" t="n">
         <v>1.3</v>
@@ -18767,7 +18767,7 @@
         <v>2.11</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU90" t="n">
         <v>1.37</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT92" t="n">
         <v>0.65</v>
@@ -19576,7 +19576,7 @@
         <v>1.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT94" t="n">
         <v>1.11</v>
@@ -19782,7 +19782,7 @@
         <v>1.84</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU95" t="n">
         <v>1.11</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -22421,7 +22421,7 @@
         <v>1.41</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU108" t="n">
         <v>1.39</v>
@@ -22624,7 +22624,7 @@
         <v>2.11</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU109" t="n">
         <v>1.27</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT113" t="n">
         <v>0.83</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.31</v>
@@ -25872,7 +25872,7 @@
         <v>1.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU125" t="n">
         <v>1.14</v>
@@ -26072,7 +26072,7 @@
         <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT126" t="n">
         <v>1.55</v>
@@ -26278,7 +26278,7 @@
         <v>1.84</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU127" t="n">
         <v>1.11</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.65</v>
@@ -27087,7 +27087,7 @@
         <v>1.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT131" t="n">
         <v>1.55</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>1</v>
@@ -28305,7 +28305,7 @@
         <v>1.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT137" t="n">
         <v>1.8</v>
@@ -28511,7 +28511,7 @@
         <v>1.18</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU138" t="n">
         <v>1.05</v>
@@ -29323,7 +29323,7 @@
         <v>1.41</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU142" t="n">
         <v>1.49</v>
@@ -31353,7 +31353,7 @@
         <v>1.56</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.12</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT154" t="n">
         <v>1</v>
@@ -31962,7 +31962,7 @@
         <v>1.43</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AU155" t="n">
         <v>1.36</v>
@@ -32162,10 +32162,10 @@
         <v>1.29</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -32568,7 +32568,7 @@
         <v>1.18</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AT158" t="n">
         <v>1.14</v>
@@ -32774,7 +32774,7 @@
         <v>1.43</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AU161" t="n">
         <v>1.15</v>
@@ -33380,7 +33380,7 @@
         <v>2</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AT162" t="n">
         <v>1.92</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT163" t="n">
         <v>1.43</v>
@@ -33989,7 +33989,7 @@
         <v>1.21</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AT165" t="n">
         <v>1.14</v>
@@ -34195,7 +34195,7 @@
         <v>1.92</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AU166" t="n">
         <v>1.87</v>
@@ -34395,7 +34395,7 @@
         <v>2.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT167" t="n">
         <v>1.92</v>
@@ -34601,7 +34601,7 @@
         <v>1.58</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AU168" t="n">
         <v>1.27</v>
@@ -34801,7 +34801,7 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AT169" t="n">
         <v>1.58</v>
@@ -35007,7 +35007,7 @@
         <v>1.92</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -35210,7 +35210,7 @@
         <v>1.92</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AU171" t="n">
         <v>1.88</v>
@@ -35410,7 +35410,7 @@
         <v>2.05</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AT172" t="n">
         <v>1.92</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT173" t="n">
         <v>0.65</v>
@@ -35819,7 +35819,7 @@
         <v>1.94</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU174" t="n">
         <v>1.51</v>
@@ -37443,7 +37443,7 @@
         <v>1.32</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU182" t="n">
         <v>1.33</v>
@@ -38455,7 +38455,7 @@
         <v>1.75</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
         <v>1.55</v>
@@ -38661,7 +38661,7 @@
         <v>1.59</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU188" t="n">
         <v>1.22</v>
@@ -38864,7 +38864,7 @@
         <v>1.5</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU189" t="n">
         <v>1.43</v>
@@ -39064,7 +39064,7 @@
         <v>1.5</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT190" t="n">
         <v>1.47</v>
@@ -39673,7 +39673,7 @@
         <v>1.25</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT193" t="n">
         <v>1.47</v>
@@ -41094,7 +41094,7 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT200" t="n">
         <v>1.11</v>
@@ -41503,7 +41503,7 @@
         <v>1.53</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU202" t="n">
         <v>0</v>
@@ -42312,10 +42312,10 @@
         <v>0.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU206" t="n">
         <v>1.46</v>
@@ -42721,7 +42721,7 @@
         <v>2.32</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU208" t="n">
         <v>1.9</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT215" t="n">
         <v>1.8</v>
@@ -44345,7 +44345,7 @@
         <v>1</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU216" t="n">
         <v>1.55</v>
@@ -44748,7 +44748,7 @@
         <v>0.75</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT218" t="n">
         <v>0.72</v>
@@ -45154,10 +45154,10 @@
         <v>1.4</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU220" t="n">
         <v>1.29</v>
@@ -46169,7 +46169,7 @@
         <v>0.6</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT225" t="n">
         <v>0.71</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT233" t="n">
         <v>0.71</v>
@@ -48608,7 +48608,7 @@
         <v>1.68</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU237" t="n">
         <v>1.5</v>
@@ -48811,7 +48811,7 @@
         <v>1.59</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU238" t="n">
         <v>1.21</v>
@@ -49417,10 +49417,10 @@
         <v>0.08</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU241" t="n">
         <v>1.63</v>
@@ -51447,7 +51447,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT251" t="n">
         <v>0.83</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT252" t="n">
         <v>1</v>
@@ -51856,7 +51856,7 @@
         <v>1.56</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU253" t="n">
         <v>1.16</v>
@@ -52262,7 +52262,7 @@
         <v>2.11</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU255" t="n">
         <v>1.55</v>
@@ -53477,7 +53477,7 @@
         <v>0.86</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT261" t="n">
         <v>1.06</v>
@@ -53886,7 +53886,7 @@
         <v>1.18</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU263" t="n">
         <v>1.3</v>
@@ -54901,7 +54901,7 @@
         <v>1.29</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU268" t="n">
         <v>1.12</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT269" t="n">
         <v>1.47</v>
@@ -55304,7 +55304,7 @@
         <v>0.6</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT270" t="n">
         <v>0.72</v>
@@ -56119,7 +56119,7 @@
         <v>1.94</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU274" t="n">
         <v>1.64</v>
@@ -57131,7 +57131,7 @@
         <v>0.79</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT279" t="n">
         <v>1.11</v>
@@ -57337,7 +57337,7 @@
         <v>1.53</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU280" t="n">
         <v>0</v>
@@ -57740,7 +57740,7 @@
         <v>1</v>
       </c>
       <c r="AS282" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT282" t="n">
         <v>1</v>
@@ -57946,7 +57946,7 @@
         <v>1.41</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU283" t="n">
         <v>1.56</v>
@@ -58552,7 +58552,7 @@
         <v>0.93</v>
       </c>
       <c r="AS286" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT286" t="n">
         <v>1.06</v>
@@ -60179,7 +60179,7 @@
         <v>1</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU294" t="n">
         <v>1.63</v>
@@ -60582,7 +60582,7 @@
         <v>1.07</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT296" t="n">
         <v>1</v>
@@ -60991,7 +60991,7 @@
         <v>1.5</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AU298" t="n">
         <v>1.47</v>
@@ -61597,10 +61597,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS301" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AT301" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU301" t="n">
         <v>1.45</v>
@@ -62206,10 +62206,10 @@
         <v>1.2</v>
       </c>
       <c r="AS304" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT304" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU304" t="n">
         <v>1.46</v>
@@ -64033,7 +64033,7 @@
         <v>1.56</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AT313" t="n">
         <v>1.47</v>
@@ -65306,6 +65306,818 @@
       </c>
       <c r="BK319" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>4726067</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45035.83333333334</v>
+      </c>
+      <c r="F320" t="n">
+        <v>17</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Mineros de Zacatecas</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>1</v>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="n">
+        <v>2</v>
+      </c>
+      <c r="N320" t="n">
+        <v>3</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['25', '48']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>6</v>
+      </c>
+      <c r="R320" t="n">
+        <v>3</v>
+      </c>
+      <c r="S320" t="n">
+        <v>9</v>
+      </c>
+      <c r="T320" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V320" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X320" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>4726068</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45035.92013888889</v>
+      </c>
+      <c r="F321" t="n">
+        <v>17</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>CA La Paz</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>2</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2</v>
+      </c>
+      <c r="K321" t="n">
+        <v>4</v>
+      </c>
+      <c r="L321" t="n">
+        <v>4</v>
+      </c>
+      <c r="M321" t="n">
+        <v>2</v>
+      </c>
+      <c r="N321" t="n">
+        <v>6</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['3', '43', '59', '81']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>['5', '35']</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>8</v>
+      </c>
+      <c r="R321" t="n">
+        <v>5</v>
+      </c>
+      <c r="S321" t="n">
+        <v>13</v>
+      </c>
+      <c r="T321" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V321" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X321" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>4726069</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45036.00347222222</v>
+      </c>
+      <c r="F322" t="n">
+        <v>17</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Raya2</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Tepatitlán de Morelos</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>0</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1</v>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>1</v>
+      </c>
+      <c r="N322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>7</v>
+      </c>
+      <c r="R322" t="n">
+        <v>2</v>
+      </c>
+      <c r="S322" t="n">
+        <v>9</v>
+      </c>
+      <c r="T322" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>4726070</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45036.875</v>
+      </c>
+      <c r="F323" t="n">
+        <v>17</v>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Dorados</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="n">
+        <v>2</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>2</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>['30', '72']</t>
+        </is>
+      </c>
+      <c r="P323" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q323" t="n">
+        <v>3</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" t="n">
+        <v>3</v>
+      </c>
+      <c r="T323" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U323" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V323" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W323" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X323" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y323" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z323" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA323" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB323" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC323" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD323" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE323" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF323" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG323" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH323" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL323" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM323" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP323" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ323" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR323" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS323" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT323" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU323" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV323" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW323" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB323" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC323" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE323" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF323" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG323" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH323" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI323" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ323" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK323" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK323"/>
+  <dimension ref="A1:BK324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT8" t="n">
         <v>1.47</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT20" t="n">
         <v>1.06</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT41" t="n">
         <v>1.47</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT69" t="n">
         <v>1.8</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT86" t="n">
         <v>1.11</v>
@@ -18967,7 +18967,7 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT91" t="n">
         <v>1.55</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT129" t="n">
         <v>0.71</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT179" t="n">
         <v>1.11</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -43124,7 +43124,7 @@
         <v>0.73</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT210" t="n">
         <v>0.83</v>
@@ -48199,7 +48199,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT235" t="n">
         <v>1.06</v>
@@ -52462,7 +52462,7 @@
         <v>0.77</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT256" t="n">
         <v>0.65</v>
@@ -53680,7 +53680,7 @@
         <v>1</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT262" t="n">
         <v>1</v>
@@ -58958,7 +58958,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT288" t="n">
         <v>0.72</v>
@@ -60988,7 +60988,7 @@
         <v>0.33</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AT298" t="n">
         <v>0.29</v>
@@ -66118,6 +66118,209 @@
       </c>
       <c r="BK323" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>4726071</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45037.83333333334</v>
+      </c>
+      <c r="F324" t="n">
+        <v>17</v>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Correcaminos UAT</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>0</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P324" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q324" t="n">
+        <v>5</v>
+      </c>
+      <c r="R324" t="n">
+        <v>8</v>
+      </c>
+      <c r="S324" t="n">
+        <v>13</v>
+      </c>
+      <c r="T324" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U324" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V324" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="W324" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X324" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y324" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z324" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA324" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB324" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC324" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AD324" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE324" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AF324" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG324" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH324" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL324" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AM324" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP324" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ324" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS324" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT324" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU324" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV324" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW324" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC324" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD324" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE324" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF324" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH324" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI324" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ324" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK324" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -25728,7 +25728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>2440822</v>
+        <v>2440828</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -25748,140 +25748,140 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Cancún</t>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['48', '90+3']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['40', '77']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
         <v>3</v>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2</v>
-      </c>
-      <c r="N125" t="n">
+      <c r="R125" t="n">
+        <v>8</v>
+      </c>
+      <c r="S125" t="n">
+        <v>11</v>
+      </c>
+      <c r="T125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y125" t="n">
         <v>3</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>['30']</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>['6', '45+2']</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>6</v>
-      </c>
-      <c r="R125" t="n">
-        <v>2</v>
-      </c>
-      <c r="S125" t="n">
-        <v>8</v>
-      </c>
-      <c r="T125" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U125" t="n">
-        <v>2</v>
-      </c>
-      <c r="V125" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W125" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X125" t="n">
+      <c r="Z125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC125" t="n">
         <v>2.55</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>2.35</v>
       </c>
       <c r="AD125" t="n">
         <v>3.1</v>
       </c>
       <c r="AE125" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AF125" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN125" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM125" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>1.3</v>
       </c>
       <c r="AO125" t="n">
         <v>1.28</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AR125" t="n">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.06</v>
+        <v>1.55</v>
       </c>
       <c r="AU125" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AV125" t="n">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="AW125" t="n">
-        <v>1.88</v>
+        <v>2.92</v>
       </c>
       <c r="AX125" t="n">
         <v>0</v>
@@ -25893,37 +25893,37 @@
         <v>0</v>
       </c>
       <c r="BA125" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BB125" t="n">
         <v>1.67</v>
       </c>
       <c r="BC125" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BD125" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BE125" t="n">
         <v>4.1</v>
       </c>
       <c r="BF125" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH125" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI125" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ125" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK125" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>2440828</v>
+        <v>2440822</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25951,140 +25951,140 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Leones Negros de la Universidad de Guadalajara</t>
+          <t>Cancún</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Dorados</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>2</v>
       </c>
       <c r="N126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>['48', '90+3']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>['40', '77']</t>
+          <t>['6', '45+2']</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
         <v>8</v>
       </c>
-      <c r="S126" t="n">
-        <v>11</v>
-      </c>
       <c r="T126" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="U126" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V126" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W126" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X126" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z126" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC126" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AD126" t="n">
         <v>3.1</v>
       </c>
       <c r="AE126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AF126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG126" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI126" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ126" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM126" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN126" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AO126" t="n">
         <v>1.28</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.84</v>
+        <v>1.29</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="AU126" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AV126" t="n">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="AW126" t="n">
-        <v>2.92</v>
+        <v>1.88</v>
       </c>
       <c r="AX126" t="n">
         <v>0</v>
@@ -26096,37 +26096,37 @@
         <v>0</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BB126" t="n">
         <v>1.67</v>
       </c>
       <c r="BC126" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BD126" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BE126" t="n">
         <v>4.1</v>
       </c>
       <c r="BF126" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ126" t="n">
         <v>6</v>
       </c>
-      <c r="BH126" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI126" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ126" t="n">
-        <v>13</v>
-      </c>
       <c r="BK126" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK324"/>
+  <dimension ref="A1:BK325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT10" t="n">
         <v>0.29</v>
@@ -4760,7 +4760,7 @@
         <v>1.41</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU21" t="n">
         <v>0.64</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT24" t="n">
         <v>0.65</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT38" t="n">
         <v>1.06</v>
@@ -9429,7 +9429,7 @@
         <v>1.59</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -12068,7 +12068,7 @@
         <v>1.18</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU57" t="n">
         <v>1.08</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT63" t="n">
         <v>1.11</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU78" t="n">
         <v>1.24</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT81" t="n">
         <v>1.06</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT98" t="n">
         <v>1.47</v>
@@ -20797,7 +20797,7 @@
         <v>1.53</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -24045,7 +24045,7 @@
         <v>1.68</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -27293,7 +27293,7 @@
         <v>1.29</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU132" t="n">
         <v>1.11</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT145" t="n">
         <v>1.06</v>
@@ -32571,7 +32571,7 @@
         <v>1.03</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AU158" t="n">
         <v>1.32</v>
@@ -33177,7 +33177,7 @@
         <v>2.24</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AT161" t="n">
         <v>2.15</v>
@@ -33383,7 +33383,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33992,7 +33992,7 @@
         <v>2.15</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AU165" t="n">
         <v>1.07</v>
@@ -34192,7 +34192,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT166" t="n">
         <v>1.16</v>
@@ -34398,7 +34398,7 @@
         <v>1.47</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -35004,7 +35004,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT170" t="n">
         <v>1.47</v>
@@ -35207,7 +35207,7 @@
         <v>2.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AT171" t="n">
         <v>2.15</v>
@@ -35413,7 +35413,7 @@
         <v>2.15</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AU172" t="n">
         <v>1.17</v>
@@ -36425,7 +36425,7 @@
         <v>0.89</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT177" t="n">
         <v>0.83</v>
@@ -38255,7 +38255,7 @@
         <v>2.11</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU186" t="n">
         <v>1.52</v>
@@ -40282,7 +40282,7 @@
         <v>0.25</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT196" t="n">
         <v>0.71</v>
@@ -42112,7 +42112,7 @@
         <v>1.32</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU205" t="n">
         <v>1.49</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -44751,7 +44751,7 @@
         <v>1.84</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU218" t="n">
         <v>1.62</v>
@@ -47387,7 +47387,7 @@
         <v>1.86</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT231" t="n">
         <v>1.8</v>
@@ -49014,7 +49014,7 @@
         <v>1.84</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU239" t="n">
         <v>1.43</v>
@@ -50232,7 +50232,7 @@
         <v>1.94</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU245" t="n">
         <v>1.63</v>
@@ -51244,7 +51244,7 @@
         <v>1.69</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT250" t="n">
         <v>1.47</v>
@@ -55307,7 +55307,7 @@
         <v>2.5</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU270" t="n">
         <v>1.43</v>
@@ -56928,7 +56928,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT278" t="n">
         <v>1</v>
@@ -58349,7 +58349,7 @@
         <v>1.12</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT285" t="n">
         <v>1.11</v>
@@ -58961,7 +58961,7 @@
         <v>1.47</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU288" t="n">
         <v>1.44</v>
@@ -61397,7 +61397,7 @@
         <v>1</v>
       </c>
       <c r="AT300" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="AU300" t="n">
         <v>1.74</v>
@@ -62409,7 +62409,7 @@
         <v>0.93</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT305" t="n">
         <v>1</v>
@@ -66321,6 +66321,209 @@
       </c>
       <c r="BK324" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>4726072</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45039.83333333334</v>
+      </c>
+      <c r="F325" t="n">
+        <v>17</v>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>1</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P325" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q325" t="n">
+        <v>4</v>
+      </c>
+      <c r="R325" t="n">
+        <v>5</v>
+      </c>
+      <c r="S325" t="n">
+        <v>9</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U325" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V325" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W325" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X325" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z325" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA325" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB325" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC325" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD325" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE325" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF325" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG325" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH325" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL325" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM325" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ325" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AR325" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AS325" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AT325" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AU325" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV325" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW325" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA325" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB325" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC325" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD325" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE325" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BF325" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG325" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH325" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI325" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ325" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK325" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK325"/>
+  <dimension ref="A1:BK327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.84</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.84</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT9" t="n">
         <v>1.11</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1.18</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU27" t="n">
         <v>1.11</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT34" t="n">
         <v>1.55</v>
@@ -7602,7 +7602,7 @@
         <v>1.84</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU35" t="n">
         <v>1.39</v>
@@ -8414,7 +8414,7 @@
         <v>1.41</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU39" t="n">
         <v>1.23</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>0.65</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT52" t="n">
         <v>1.47</v>
@@ -11256,7 +11256,7 @@
         <v>2.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU53" t="n">
         <v>1.54</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT61" t="n">
         <v>1.11</v>
@@ -13895,7 +13895,7 @@
         <v>1.29</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU66" t="n">
         <v>1.17</v>
@@ -14095,7 +14095,7 @@
         <v>0.67</v>
       </c>
       <c r="AS67" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14707,7 +14707,7 @@
         <v>1.59</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU70" t="n">
         <v>1.13</v>
@@ -17143,7 +17143,7 @@
         <v>1.32</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU82" t="n">
         <v>1.37</v>
@@ -17546,7 +17546,7 @@
         <v>0.2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
         <v>0.29</v>
@@ -18361,7 +18361,7 @@
         <v>1.59</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU88" t="n">
         <v>1.13</v>
@@ -18561,7 +18561,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT89" t="n">
         <v>1.8</v>
@@ -22012,7 +22012,7 @@
         <v>0.75</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT106" t="n">
         <v>1.06</v>
@@ -22827,7 +22827,7 @@
         <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU110" t="n">
         <v>1.53</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT112" t="n">
         <v>1.11</v>
@@ -23436,7 +23436,7 @@
         <v>2.5</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU113" t="n">
         <v>1.11</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT116" t="n">
         <v>0.68</v>
@@ -26478,7 +26478,7 @@
         <v>0.83</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT128" t="n">
         <v>1</v>
@@ -26884,10 +26884,10 @@
         <v>0.67</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU130" t="n">
         <v>1.31</v>
@@ -28105,7 +28105,7 @@
         <v>1.94</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU136" t="n">
         <v>1.56</v>
@@ -30132,7 +30132,7 @@
         <v>0.14</v>
       </c>
       <c r="AS146" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT146" t="n">
         <v>0.71</v>
@@ -30541,7 +30541,7 @@
         <v>1</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU148" t="n">
         <v>1.42</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31759,7 +31759,7 @@
         <v>2.5</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU154" t="n">
         <v>1.1</v>
@@ -32368,7 +32368,7 @@
         <v>1.62</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU157" t="n">
         <v>1.54</v>
@@ -32977,7 +32977,7 @@
         <v>1.62</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AU160" t="n">
         <v>1.54</v>
@@ -33786,7 +33786,7 @@
         <v>1.58</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AT164" t="n">
         <v>1.62</v>
@@ -34598,7 +34598,7 @@
         <v>2.32</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AT168" t="n">
         <v>2.15</v>
@@ -34804,7 +34804,7 @@
         <v>2.15</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AU169" t="n">
         <v>1.17</v>
@@ -36428,7 +36428,7 @@
         <v>2.35</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU177" t="n">
         <v>1.95</v>
@@ -36628,7 +36628,7 @@
         <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT178" t="n">
         <v>1.06</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT185" t="n">
         <v>1.47</v>
@@ -39879,7 +39879,7 @@
         <v>1.84</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU194" t="n">
         <v>1.39</v>
@@ -40688,7 +40688,7 @@
         <v>0.6</v>
       </c>
       <c r="AS198" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT198" t="n">
         <v>1</v>
@@ -40891,7 +40891,7 @@
         <v>1.62</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT199" t="n">
         <v>1.55</v>
@@ -41300,7 +41300,7 @@
         <v>1.29</v>
       </c>
       <c r="AT201" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU201" t="n">
         <v>1.16</v>
@@ -43127,7 +43127,7 @@
         <v>1.47</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU210" t="n">
         <v>1.44</v>
@@ -44342,7 +44342,7 @@
         <v>0.09</v>
       </c>
       <c r="AS216" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT216" t="n">
         <v>0.29</v>
@@ -44951,7 +44951,7 @@
         <v>0.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT219" t="n">
         <v>1</v>
@@ -45360,7 +45360,7 @@
         <v>1.18</v>
       </c>
       <c r="AT221" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU221" t="n">
         <v>1.19</v>
@@ -46984,7 +46984,7 @@
         <v>1.56</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU229" t="n">
         <v>1.16</v>
@@ -48402,7 +48402,7 @@
         <v>0.75</v>
       </c>
       <c r="AS236" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT236" t="n">
         <v>0.65</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT237" t="n">
         <v>1.06</v>
@@ -49623,7 +49623,7 @@
         <v>1.53</v>
       </c>
       <c r="AT242" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU242" t="n">
         <v>0</v>
@@ -51450,7 +51450,7 @@
         <v>2</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU251" t="n">
         <v>1.39</v>
@@ -52059,7 +52059,7 @@
         <v>1.94</v>
       </c>
       <c r="AT254" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU254" t="n">
         <v>1.63</v>
@@ -52868,10 +52868,10 @@
         <v>0.71</v>
       </c>
       <c r="AS258" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU258" t="n">
         <v>1.56</v>
@@ -53274,7 +53274,7 @@
         <v>0.58</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT260" t="n">
         <v>0.71</v>
@@ -55713,7 +55713,7 @@
         <v>1.32</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU272" t="n">
         <v>1.45</v>
@@ -55913,7 +55913,7 @@
         <v>1.88</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT273" t="n">
         <v>1.8</v>
@@ -56522,10 +56522,10 @@
         <v>0.83</v>
       </c>
       <c r="AS276" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT276" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU276" t="n">
         <v>1.56</v>
@@ -59567,10 +59567,10 @@
         <v>0.88</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU291" t="n">
         <v>1.48</v>
@@ -59773,7 +59773,7 @@
         <v>1.56</v>
       </c>
       <c r="AT292" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU292" t="n">
         <v>1.33</v>
@@ -60176,7 +60176,7 @@
         <v>1.07</v>
       </c>
       <c r="AS294" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT294" t="n">
         <v>1.06</v>
@@ -61394,7 +61394,7 @@
         <v>0.71</v>
       </c>
       <c r="AS300" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT300" t="n">
         <v>0.68</v>
@@ -62003,7 +62003,7 @@
         <v>1.06</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT303" t="n">
         <v>1.06</v>
@@ -62412,7 +62412,7 @@
         <v>2.35</v>
       </c>
       <c r="AT305" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU305" t="n">
         <v>1.85</v>
@@ -64239,7 +64239,7 @@
         <v>2.11</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU314" t="n">
         <v>1.69</v>
@@ -64645,7 +64645,7 @@
         <v>1</v>
       </c>
       <c r="AT316" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU316" t="n">
         <v>1.41</v>
@@ -65251,7 +65251,7 @@
         <v>1</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT319" t="n">
         <v>1.11</v>
@@ -65860,7 +65860,7 @@
         <v>1.06</v>
       </c>
       <c r="AS322" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT322" t="n">
         <v>1.06</v>
@@ -66269,7 +66269,7 @@
         <v>1.47</v>
       </c>
       <c r="AT324" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU324" t="n">
         <v>1.52</v>
@@ -66523,6 +66523,412 @@
         <v>14</v>
       </c>
       <c r="BK325" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>5957791</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45042.91666666666</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>Raya2</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Zacatepec Siglo XXI</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>2</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>2</v>
+      </c>
+      <c r="L326" t="n">
+        <v>2</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>2</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>['11', '26']</t>
+        </is>
+      </c>
+      <c r="P326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T326" t="n">
+        <v>0</v>
+      </c>
+      <c r="U326" t="n">
+        <v>0</v>
+      </c>
+      <c r="V326" t="n">
+        <v>0</v>
+      </c>
+      <c r="W326" t="n">
+        <v>0</v>
+      </c>
+      <c r="X326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ326" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR326" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS326" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT326" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU326" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW326" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AX326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE326" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ326" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK326" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>5957792</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45043.00347222222</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>Cimarrones de Sonora</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Correcaminos UAT</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>1</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P327" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q327" t="n">
+        <v>4</v>
+      </c>
+      <c r="R327" t="n">
+        <v>9</v>
+      </c>
+      <c r="S327" t="n">
+        <v>13</v>
+      </c>
+      <c r="T327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U327" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V327" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="W327" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X327" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y327" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA327" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB327" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC327" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD327" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE327" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AF327" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG327" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH327" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL327" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM327" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP327" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AQ327" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR327" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS327" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT327" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU327" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV327" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW327" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ327" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA327" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB327" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC327" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE327" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF327" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG327" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH327" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI327" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ327" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK327" t="n">
         <v>16</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK327"/>
+  <dimension ref="A1:BK329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.06</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT8" t="n">
         <v>1.47</v>
@@ -3745,7 +3745,7 @@
         <v>1.53</v>
       </c>
       <c r="AT16" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT20" t="n">
         <v>1.06</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.47</v>
@@ -5572,7 +5572,7 @@
         <v>1.94</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>1.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT41" t="n">
         <v>1.47</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT44" t="n">
         <v>0.68</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>0.71</v>
@@ -11662,7 +11662,7 @@
         <v>1.84</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU55" t="n">
         <v>1.58</v>
@@ -12880,7 +12880,7 @@
         <v>1.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.55</v>
@@ -14098,7 +14098,7 @@
         <v>1.11</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU67" t="n">
         <v>1.7</v>
@@ -14301,7 +14301,7 @@
         <v>1.56</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.2</v>
@@ -14501,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>1.8</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.9399999999999999</v>
@@ -17346,7 +17346,7 @@
         <v>1.29</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU83" t="n">
         <v>1.17</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.79</v>
@@ -18967,7 +18967,7 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT91" t="n">
         <v>1.55</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU103" t="n">
         <v>0.98</v>
@@ -22215,10 +22215,10 @@
         <v>1.6</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT107" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU107" t="n">
         <v>1.13</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -23233,7 +23233,7 @@
         <v>1.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU112" t="n">
         <v>1.83</v>
@@ -24451,7 +24451,7 @@
         <v>2.35</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU118" t="n">
         <v>1.62</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT119" t="n">
         <v>1.06</v>
@@ -25728,7 +25728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>2440828</v>
+        <v>2440822</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -25748,140 +25748,140 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Leones Negros de la Universidad de Guadalajara</t>
+          <t>Cancún</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Dorados</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>2</v>
       </c>
       <c r="N125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>['48', '90+3']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>['40', '77']</t>
+          <t>['6', '45+2']</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="n">
         <v>8</v>
       </c>
-      <c r="S125" t="n">
-        <v>11</v>
-      </c>
       <c r="T125" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="U125" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V125" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W125" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X125" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y125" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z125" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB125" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC125" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AD125" t="n">
         <v>3.1</v>
       </c>
       <c r="AE125" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AF125" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH125" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI125" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ125" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK125" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AL125" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM125" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN125" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AO125" t="n">
         <v>1.28</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR125" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.84</v>
+        <v>1.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="AU125" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AV125" t="n">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="AW125" t="n">
-        <v>2.92</v>
+        <v>1.88</v>
       </c>
       <c r="AX125" t="n">
         <v>0</v>
@@ -25893,37 +25893,37 @@
         <v>0</v>
       </c>
       <c r="BA125" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BB125" t="n">
         <v>1.67</v>
       </c>
       <c r="BC125" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BD125" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BE125" t="n">
         <v>4.1</v>
       </c>
       <c r="BF125" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ125" t="n">
         <v>6</v>
       </c>
-      <c r="BH125" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>13</v>
-      </c>
       <c r="BK125" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>2440822</v>
+        <v>2440828</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25951,140 +25951,140 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Cancún</t>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['48', '90+3']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['40', '77']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
         <v>3</v>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="n">
-        <v>2</v>
-      </c>
-      <c r="N126" t="n">
+      <c r="R126" t="n">
+        <v>8</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y126" t="n">
         <v>3</v>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>['30']</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>['6', '45+2']</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>6</v>
-      </c>
-      <c r="R126" t="n">
-        <v>2</v>
-      </c>
-      <c r="S126" t="n">
-        <v>8</v>
-      </c>
-      <c r="T126" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U126" t="n">
-        <v>2</v>
-      </c>
-      <c r="V126" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W126" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X126" t="n">
+      <c r="Z126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC126" t="n">
         <v>2.55</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>2.35</v>
       </c>
       <c r="AD126" t="n">
         <v>3.1</v>
       </c>
       <c r="AE126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AF126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN126" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM126" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>1.3</v>
       </c>
       <c r="AO126" t="n">
         <v>1.28</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.29</v>
+        <v>1.84</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.06</v>
+        <v>1.55</v>
       </c>
       <c r="AU126" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AV126" t="n">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="AW126" t="n">
-        <v>1.88</v>
+        <v>2.92</v>
       </c>
       <c r="AX126" t="n">
         <v>0</v>
@@ -26096,37 +26096,37 @@
         <v>0</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BB126" t="n">
         <v>1.67</v>
       </c>
       <c r="BC126" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BD126" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BE126" t="n">
         <v>4.1</v>
       </c>
       <c r="BF126" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI126" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ126" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK126" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT129" t="n">
         <v>0.71</v>
@@ -27496,7 +27496,7 @@
         <v>1</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU133" t="n">
         <v>1.38</v>
@@ -27902,7 +27902,7 @@
         <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU135" t="n">
         <v>1.49</v>
@@ -29523,7 +29523,7 @@
         <v>1.13</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT143" t="n">
         <v>1.47</v>
@@ -30947,7 +30947,7 @@
         <v>1.75</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU150" t="n">
         <v>1.27</v>
@@ -31150,7 +31150,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU151" t="n">
         <v>1.59</v>
@@ -31959,10 +31959,10 @@
         <v>1.24</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AU155" t="n">
         <v>1.36</v>
@@ -32771,10 +32771,10 @@
         <v>1.82</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -33583,10 +33583,10 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AU163" t="n">
         <v>1.56</v>
@@ -34395,7 +34395,7 @@
         <v>2.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT167" t="n">
         <v>1.95</v>
@@ -35007,7 +35007,7 @@
         <v>1.95</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT179" t="n">
         <v>1.11</v>
@@ -37037,7 +37037,7 @@
         <v>1.41</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU180" t="n">
         <v>1.59</v>
@@ -37849,7 +37849,7 @@
         <v>1.29</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU184" t="n">
         <v>1.15</v>
@@ -38658,7 +38658,7 @@
         <v>0.11</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT188" t="n">
         <v>0.29</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -41097,7 +41097,7 @@
         <v>2.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -41706,7 +41706,7 @@
         <v>2.11</v>
       </c>
       <c r="AT203" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU203" t="n">
         <v>1.5</v>
@@ -43124,7 +43124,7 @@
         <v>0.73</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT210" t="n">
         <v>0.79</v>
@@ -43733,7 +43733,7 @@
         <v>0.91</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT213" t="n">
         <v>1.11</v>
@@ -43939,7 +43939,7 @@
         <v>1.41</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU214" t="n">
         <v>1.63</v>
@@ -45969,7 +45969,7 @@
         <v>1.32</v>
       </c>
       <c r="AT224" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU224" t="n">
         <v>1.4</v>
@@ -47996,10 +47996,10 @@
         <v>1.21</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU234" t="n">
         <v>1.21</v>
@@ -48199,7 +48199,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT235" t="n">
         <v>1.06</v>
@@ -48808,7 +48808,7 @@
         <v>0.92</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT238" t="n">
         <v>1</v>
@@ -50029,7 +50029,7 @@
         <v>1.32</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU244" t="n">
         <v>1.41</v>
@@ -50435,7 +50435,7 @@
         <v>1.18</v>
       </c>
       <c r="AT246" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU246" t="n">
         <v>1.25</v>
@@ -52462,7 +52462,7 @@
         <v>0.77</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT256" t="n">
         <v>0.65</v>
@@ -53071,7 +53071,7 @@
         <v>1.81</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT259" t="n">
         <v>1.8</v>
@@ -53680,10 +53680,10 @@
         <v>1</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT262" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU262" t="n">
         <v>1.37</v>
@@ -54292,7 +54292,7 @@
         <v>1.53</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU265" t="n">
         <v>0</v>
@@ -55507,7 +55507,7 @@
         <v>0.71</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT271" t="n">
         <v>0.65</v>
@@ -57743,7 +57743,7 @@
         <v>2.5</v>
       </c>
       <c r="AT282" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU282" t="n">
         <v>1.49</v>
@@ -58352,7 +58352,7 @@
         <v>2.35</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU285" t="n">
         <v>1.81</v>
@@ -58958,7 +58958,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT288" t="n">
         <v>0.68</v>
@@ -59367,7 +59367,7 @@
         <v>1.94</v>
       </c>
       <c r="AT290" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU290" t="n">
         <v>1.61</v>
@@ -60379,7 +60379,7 @@
         <v>1.5</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT295" t="n">
         <v>1.55</v>
@@ -60988,7 +60988,7 @@
         <v>0.33</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT298" t="n">
         <v>0.29</v>
@@ -61194,7 +61194,7 @@
         <v>1.84</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU299" t="n">
         <v>1.32</v>
@@ -63224,7 +63224,7 @@
         <v>1</v>
       </c>
       <c r="AT309" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU309" t="n">
         <v>1.36</v>
@@ -64439,7 +64439,7 @@
         <v>1</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AT315" t="n">
         <v>1</v>
@@ -66266,7 +66266,7 @@
         <v>1</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT324" t="n">
         <v>0.9399999999999999</v>
@@ -66920,16 +66920,422 @@
         <v>7</v>
       </c>
       <c r="BH327" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI327" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ327" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK327" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>5957793</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45043.91666666666</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Venados</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>2</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>['8', '62']</t>
+        </is>
+      </c>
+      <c r="P328" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q328" t="n">
+        <v>6</v>
+      </c>
+      <c r="R328" t="n">
+        <v>10</v>
+      </c>
+      <c r="S328" t="n">
         <v>16</v>
+      </c>
+      <c r="T328" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U328" t="n">
+        <v>2</v>
+      </c>
+      <c r="V328" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="W328" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X328" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y328" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z328" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA328" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB328" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE328" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF328" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG328" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH328" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL328" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM328" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP328" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ328" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR328" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS328" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT328" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AU328" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV328" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW328" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ328" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA328" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB328" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC328" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD328" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE328" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF328" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG328" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH328" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI328" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ328" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK328" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>5957794</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45044.00347222222</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>Tepatitlán de Morelos</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>1</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P329" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q329" t="n">
+        <v>5</v>
+      </c>
+      <c r="R329" t="n">
+        <v>2</v>
+      </c>
+      <c r="S329" t="n">
+        <v>7</v>
+      </c>
+      <c r="T329" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U329" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V329" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="W329" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X329" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y329" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z329" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA329" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB329" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC329" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD329" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE329" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AF329" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG329" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH329" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL329" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM329" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP329" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ329" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR329" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS329" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT329" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AU329" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV329" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW329" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ329" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA329" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB329" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC329" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD329" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BE329" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF329" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG329" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH329" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI329" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ329" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK329" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK329"/>
+  <dimension ref="A1:BK332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.32</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>0.79</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT8" t="n">
         <v>1.47</v>
@@ -3542,7 +3542,7 @@
         <v>1.32</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU15" t="n">
         <v>1.06</v>
@@ -3948,7 +3948,7 @@
         <v>1.41</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT19" t="n">
         <v>1.06</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT20" t="n">
         <v>1.06</v>
@@ -6181,7 +6181,7 @@
         <v>1.84</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU28" t="n">
         <v>1.42</v>
@@ -7196,7 +7196,7 @@
         <v>2.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU33" t="n">
         <v>1.42</v>
@@ -7399,7 +7399,7 @@
         <v>1.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU34" t="n">
         <v>0.66</v>
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>0.9399999999999999</v>
@@ -8617,7 +8617,7 @@
         <v>1.94</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU40" t="n">
         <v>1.75</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT41" t="n">
         <v>1.47</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU49" t="n">
         <v>1.24</v>
@@ -10647,7 +10647,7 @@
         <v>1.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>1.32</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.95</v>
@@ -14501,10 +14501,10 @@
         <v>1</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -14910,7 +14910,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU71" t="n">
         <v>0.97</v>
@@ -15313,7 +15313,7 @@
         <v>0.67</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU85" t="n">
         <v>1.22</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT86" t="n">
         <v>1.2</v>
@@ -18158,7 +18158,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU87" t="n">
         <v>1</v>
@@ -18564,7 +18564,7 @@
         <v>1.11</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -18967,10 +18967,10 @@
         <v>1.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU91" t="n">
         <v>1.52</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT92" t="n">
         <v>0.65</v>
@@ -21203,7 +21203,7 @@
         <v>1.29</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU102" t="n">
         <v>1.18</v>
@@ -21812,7 +21812,7 @@
         <v>1.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -22015,7 +22015,7 @@
         <v>1.75</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -23027,7 +23027,7 @@
         <v>0.6</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT111" t="n">
         <v>1.06</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU119" t="n">
         <v>1.05</v>
@@ -25669,7 +25669,7 @@
         <v>1.56</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU124" t="n">
         <v>1.12</v>
@@ -26072,10 +26072,10 @@
         <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU126" t="n">
         <v>1.6</v>
@@ -26681,7 +26681,7 @@
         <v>0.17</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT129" t="n">
         <v>0.71</v>
@@ -27090,7 +27090,7 @@
         <v>2.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU131" t="n">
         <v>1.11</v>
@@ -28305,10 +28305,10 @@
         <v>1.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU137" t="n">
         <v>1.61</v>
@@ -29932,7 +29932,7 @@
         <v>2.35</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU145" t="n">
         <v>1.82</v>
@@ -30744,7 +30744,7 @@
         <v>1.94</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU149" t="n">
         <v>1.56</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU153" t="n">
         <v>1.42</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -32774,7 +32774,7 @@
         <v>1.39</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -33180,7 +33180,7 @@
         <v>1.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AU161" t="n">
         <v>1.15</v>
@@ -33383,7 +33383,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AT163" t="n">
         <v>1.39</v>
@@ -33989,7 +33989,7 @@
         <v>1.21</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AT165" t="n">
         <v>1.11</v>
@@ -34192,7 +34192,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT166" t="n">
         <v>1.16</v>
@@ -34395,10 +34395,10 @@
         <v>2.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -34601,7 +34601,7 @@
         <v>1.62</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AU168" t="n">
         <v>1.27</v>
@@ -34801,7 +34801,7 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AT169" t="n">
         <v>1.62</v>
@@ -35004,10 +35004,10 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -35207,10 +35207,10 @@
         <v>2.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AU171" t="n">
         <v>1.88</v>
@@ -35410,10 +35410,10 @@
         <v>2.05</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.17</v>
@@ -36631,7 +36631,7 @@
         <v>1.11</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU178" t="n">
         <v>1.6</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT179" t="n">
         <v>1.11</v>
@@ -37646,7 +37646,7 @@
         <v>1.53</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU183" t="n">
         <v>0</v>
@@ -38458,7 +38458,7 @@
         <v>2</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU187" t="n">
         <v>1.43</v>
@@ -38861,7 +38861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT189" t="n">
         <v>1</v>
@@ -39673,7 +39673,7 @@
         <v>1.25</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT193" t="n">
         <v>1.47</v>
@@ -40488,7 +40488,7 @@
         <v>1.41</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU197" t="n">
         <v>1.55</v>
@@ -40894,7 +40894,7 @@
         <v>1.75</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU199" t="n">
         <v>1.38</v>
@@ -43124,7 +43124,7 @@
         <v>0.73</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT210" t="n">
         <v>0.79</v>
@@ -44142,7 +44142,7 @@
         <v>2</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU215" t="n">
         <v>1.45</v>
@@ -44548,7 +44548,7 @@
         <v>1.29</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU217" t="n">
         <v>1.13</v>
@@ -44748,7 +44748,7 @@
         <v>0.75</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT218" t="n">
         <v>0.68</v>
@@ -45766,7 +45766,7 @@
         <v>2.11</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU223" t="n">
         <v>1.58</v>
@@ -46169,7 +46169,7 @@
         <v>0.6</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT225" t="n">
         <v>0.71</v>
@@ -47390,7 +47390,7 @@
         <v>2.35</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU231" t="n">
         <v>1.84</v>
@@ -48199,10 +48199,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU235" t="n">
         <v>1.44</v>
@@ -49217,7 +49217,7 @@
         <v>1.18</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU240" t="n">
         <v>1.17</v>
@@ -49417,7 +49417,7 @@
         <v>0.08</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT241" t="n">
         <v>0.29</v>
@@ -49826,7 +49826,7 @@
         <v>2.11</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU243" t="n">
         <v>1.55</v>
@@ -52462,7 +52462,7 @@
         <v>0.77</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT256" t="n">
         <v>0.65</v>
@@ -52668,7 +52668,7 @@
         <v>1.84</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU257" t="n">
         <v>1.41</v>
@@ -53074,7 +53074,7 @@
         <v>1.5</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU259" t="n">
         <v>1.22</v>
@@ -53477,10 +53477,10 @@
         <v>0.86</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU261" t="n">
         <v>1.67</v>
@@ -53680,7 +53680,7 @@
         <v>1</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT262" t="n">
         <v>0.95</v>
@@ -54698,7 +54698,7 @@
         <v>1</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU267" t="n">
         <v>1.44</v>
@@ -55916,7 +55916,7 @@
         <v>1.75</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU273" t="n">
         <v>1.46</v>
@@ -56728,7 +56728,7 @@
         <v>1.84</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU277" t="n">
         <v>1.36</v>
@@ -57131,7 +57131,7 @@
         <v>0.79</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT279" t="n">
         <v>1.11</v>
@@ -58958,7 +58958,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT288" t="n">
         <v>0.68</v>
@@ -59976,7 +59976,7 @@
         <v>1.29</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU293" t="n">
         <v>1.15</v>
@@ -60382,7 +60382,7 @@
         <v>1.5</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU295" t="n">
         <v>1.31</v>
@@ -60582,7 +60582,7 @@
         <v>1.07</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT296" t="n">
         <v>1</v>
@@ -60788,7 +60788,7 @@
         <v>2.11</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU297" t="n">
         <v>1.64</v>
@@ -60988,7 +60988,7 @@
         <v>0.33</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT298" t="n">
         <v>0.29</v>
@@ -63427,7 +63427,7 @@
         <v>1.56</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU310" t="n">
         <v>1.26</v>
@@ -63630,7 +63630,7 @@
         <v>1.94</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AU311" t="n">
         <v>1.6</v>
@@ -63833,7 +63833,7 @@
         <v>1.41</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AU312" t="n">
         <v>1.52</v>
@@ -64033,7 +64033,7 @@
         <v>1.56</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT313" t="n">
         <v>1.47</v>
@@ -66063,7 +66063,7 @@
         <v>1.13</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT323" t="n">
         <v>1.06</v>
@@ -66266,7 +66266,7 @@
         <v>1</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT324" t="n">
         <v>0.9399999999999999</v>
@@ -66672,7 +66672,7 @@
         <v>1.17</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT326" t="n">
         <v>1.14</v>
@@ -67078,7 +67078,7 @@
         <v>1.43</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT328" t="n">
         <v>1.39</v>
@@ -67284,7 +67284,7 @@
         <v>1.28</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AU329" t="n">
         <v>1.34</v>
@@ -67336,6 +67336,615 @@
       </c>
       <c r="BK329" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>5996997</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45048.91666666666</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>3</v>
+      </c>
+      <c r="N330" t="n">
+        <v>3</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P330" t="inlineStr">
+        <is>
+          <t>['9', '54', '77']</t>
+        </is>
+      </c>
+      <c r="Q330" t="n">
+        <v>4</v>
+      </c>
+      <c r="R330" t="n">
+        <v>2</v>
+      </c>
+      <c r="S330" t="n">
+        <v>6</v>
+      </c>
+      <c r="T330" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U330" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V330" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W330" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X330" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y330" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z330" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA330" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB330" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC330" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AD330" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE330" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AF330" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG330" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH330" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL330" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM330" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP330" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ330" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AR330" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS330" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT330" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU330" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV330" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW330" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX330" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AZ330" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BA330" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB330" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC330" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BD330" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE330" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF330" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG330" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH330" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI330" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ330" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK330" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>5996999</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45049.91666666666</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>Raya2</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>1</v>
+      </c>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+      <c r="N331" t="n">
+        <v>2</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P331" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R331" t="n">
+        <v>1</v>
+      </c>
+      <c r="S331" t="n">
+        <v>3</v>
+      </c>
+      <c r="T331" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U331" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V331" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W331" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X331" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y331" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z331" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA331" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB331" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC331" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD331" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AE331" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF331" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG331" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL331" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM331" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ331" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR331" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS331" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT331" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU331" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV331" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW331" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE331" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF331" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG331" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH331" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI331" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ331" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK331" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>5996998</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45050.00347222222</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>1</v>
+      </c>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="n">
+        <v>2</v>
+      </c>
+      <c r="M332" t="n">
+        <v>2</v>
+      </c>
+      <c r="N332" t="n">
+        <v>4</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>['55', '80']</t>
+        </is>
+      </c>
+      <c r="P332" t="inlineStr">
+        <is>
+          <t>['23', '77']</t>
+        </is>
+      </c>
+      <c r="Q332" t="n">
+        <v>4</v>
+      </c>
+      <c r="R332" t="n">
+        <v>6</v>
+      </c>
+      <c r="S332" t="n">
+        <v>10</v>
+      </c>
+      <c r="T332" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U332" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V332" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="W332" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X332" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y332" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Z332" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA332" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB332" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC332" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD332" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE332" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG332" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH332" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL332" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP332" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ332" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR332" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS332" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT332" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU332" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW332" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX332" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AZ332" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA332" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC332" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD332" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE332" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF332" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG332" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH332" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI332" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ332" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK332" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK332"/>
+  <dimension ref="A1:BK334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT18" t="n">
         <v>0.71</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>1.94</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT33" t="n">
         <v>1.05</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT43" t="n">
         <v>0.65</v>
@@ -9835,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU46" t="n">
         <v>1.41</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT56" t="n">
         <v>1.06</v>
@@ -12877,10 +12877,10 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU61" t="n">
         <v>1.55</v>
@@ -14301,7 +14301,7 @@
         <v>1.56</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU68" t="n">
         <v>1.2</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT76" t="n">
         <v>1.47</v>
@@ -17546,7 +17546,7 @@
         <v>0.2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT84" t="n">
         <v>0.29</v>
@@ -17955,7 +17955,7 @@
         <v>1.53</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -19576,7 +19576,7 @@
         <v>1.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT94" t="n">
         <v>1.11</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU103" t="n">
         <v>0.98</v>
@@ -22012,7 +22012,7 @@
         <v>0.75</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT106" t="n">
         <v>1.05</v>
@@ -23233,7 +23233,7 @@
         <v>1.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU112" t="n">
         <v>1.83</v>
@@ -23433,7 +23433,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT113" t="n">
         <v>0.79</v>
@@ -24042,7 +24042,7 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT116" t="n">
         <v>0.68</v>
@@ -26884,7 +26884,7 @@
         <v>0.67</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>0.9399999999999999</v>
@@ -27087,7 +27087,7 @@
         <v>1.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT131" t="n">
         <v>1.52</v>
@@ -27496,7 +27496,7 @@
         <v>1</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU133" t="n">
         <v>1.38</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT150" t="n">
         <v>0.95</v>
@@ -31150,7 +31150,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU151" t="n">
         <v>1.59</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT154" t="n">
         <v>0.9399999999999999</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32774,7 +32774,7 @@
         <v>1.39</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -32974,10 +32974,10 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AU160" t="n">
         <v>1.54</v>
@@ -33180,7 +33180,7 @@
         <v>1.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU161" t="n">
         <v>1.15</v>
@@ -33583,7 +33583,7 @@
         <v>1.63</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT163" t="n">
         <v>1.39</v>
@@ -33786,10 +33786,10 @@
         <v>1.58</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -33989,7 +33989,7 @@
         <v>1.21</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AT165" t="n">
         <v>1.11</v>
@@ -34395,7 +34395,7 @@
         <v>2.11</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT167" t="n">
         <v>1.93</v>
@@ -34598,10 +34598,10 @@
         <v>2.32</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU168" t="n">
         <v>1.27</v>
@@ -34801,10 +34801,10 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AU169" t="n">
         <v>1.17</v>
@@ -35007,7 +35007,7 @@
         <v>1.93</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU170" t="n">
         <v>1.89</v>
@@ -35210,7 +35210,7 @@
         <v>1.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU171" t="n">
         <v>1.88</v>
@@ -35410,7 +35410,7 @@
         <v>2.05</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AT172" t="n">
         <v>1.93</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT173" t="n">
         <v>0.65</v>
@@ -37849,7 +37849,7 @@
         <v>1.29</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU184" t="n">
         <v>1.15</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT185" t="n">
         <v>1.47</v>
@@ -39064,7 +39064,7 @@
         <v>1.5</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT190" t="n">
         <v>1.47</v>
@@ -40891,7 +40891,7 @@
         <v>1.62</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT199" t="n">
         <v>1.52</v>
@@ -41094,10 +41094,10 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -43939,7 +43939,7 @@
         <v>1.41</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU214" t="n">
         <v>1.63</v>
@@ -44951,7 +44951,7 @@
         <v>0.55</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT219" t="n">
         <v>1</v>
@@ -45154,7 +45154,7 @@
         <v>1.4</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT220" t="n">
         <v>1.06</v>
@@ -47999,7 +47999,7 @@
         <v>1.5</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU234" t="n">
         <v>1.21</v>
@@ -48605,7 +48605,7 @@
         <v>1.27</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT237" t="n">
         <v>1.06</v>
@@ -50029,7 +50029,7 @@
         <v>1.32</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU244" t="n">
         <v>1.41</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT252" t="n">
         <v>1</v>
@@ -53274,7 +53274,7 @@
         <v>0.58</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT260" t="n">
         <v>0.71</v>
@@ -54292,7 +54292,7 @@
         <v>1.53</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU265" t="n">
         <v>0</v>
@@ -55304,7 +55304,7 @@
         <v>0.6</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT270" t="n">
         <v>0.68</v>
@@ -55913,7 +55913,7 @@
         <v>1.88</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT273" t="n">
         <v>1.86</v>
@@ -57740,7 +57740,7 @@
         <v>1</v>
       </c>
       <c r="AS282" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT282" t="n">
         <v>0.95</v>
@@ -58352,7 +58352,7 @@
         <v>2.35</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU285" t="n">
         <v>1.81</v>
@@ -59567,7 +59567,7 @@
         <v>0.88</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT291" t="n">
         <v>0.79</v>
@@ -61194,7 +61194,7 @@
         <v>1.84</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AU299" t="n">
         <v>1.32</v>
@@ -61597,7 +61597,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS301" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT301" t="n">
         <v>1</v>
@@ -62003,7 +62003,7 @@
         <v>1.06</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT303" t="n">
         <v>1.06</v>
@@ -65251,7 +65251,7 @@
         <v>1</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT319" t="n">
         <v>1.11</v>
@@ -65657,7 +65657,7 @@
         <v>0.31</v>
       </c>
       <c r="AS321" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AT321" t="n">
         <v>0.29</v>
@@ -66875,7 +66875,7 @@
         <v>1.21</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AT327" t="n">
         <v>1.17</v>
@@ -67284,7 +67284,7 @@
         <v>1.28</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU329" t="n">
         <v>1.34</v>
@@ -67484,10 +67484,10 @@
         <v>2.15</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AT330" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="AU330" t="n">
         <v>1.69</v>
@@ -67944,6 +67944,412 @@
         <v>17</v>
       </c>
       <c r="BK332" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5997000</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45051.00347222222</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0</v>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>Cimarrones de Sonora</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>1</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>2</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q333" t="n">
+        <v>3</v>
+      </c>
+      <c r="R333" t="n">
+        <v>7</v>
+      </c>
+      <c r="S333" t="n">
+        <v>10</v>
+      </c>
+      <c r="T333" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U333" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V333" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X333" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y333" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Z333" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA333" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB333" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC333" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD333" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE333" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="AF333" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG333" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL333" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM333" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP333" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ333" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR333" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS333" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT333" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AU333" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV333" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW333" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX333" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AZ333" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA333" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB333" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC333" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BD333" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE333" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF333" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH333" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI333" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ333" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK333" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>5997001</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45051.92013888889</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>1</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P334" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q334" t="n">
+        <v>4</v>
+      </c>
+      <c r="R334" t="n">
+        <v>3</v>
+      </c>
+      <c r="S334" t="n">
+        <v>7</v>
+      </c>
+      <c r="T334" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V334" t="n">
+        <v>4</v>
+      </c>
+      <c r="W334" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X334" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y334" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z334" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA334" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB334" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC334" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD334" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE334" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG334" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH334" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL334" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP334" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ334" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR334" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS334" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AT334" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU334" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV334" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW334" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE334" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG334" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH334" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI334" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ334" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK334" t="n">
         <v>19</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK334"/>
+  <dimension ref="A1:BK336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT7" t="n">
         <v>0.68</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT10" t="n">
         <v>0.29</v>
@@ -2933,7 +2933,7 @@
         <v>1.29</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU23" t="n">
         <v>1.16</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT24" t="n">
         <v>0.65</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT26" t="n">
         <v>1.11</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT38" t="n">
         <v>1.06</v>
@@ -8820,7 +8820,7 @@
         <v>1.53</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU41" t="n">
         <v>1.82</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -13080,10 +13080,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU62" t="n">
         <v>1.52</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT63" t="n">
         <v>1.11</v>
@@ -15722,7 +15722,7 @@
         <v>1.94</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT81" t="n">
         <v>1.06</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU96" t="n">
         <v>1.22</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT98" t="n">
         <v>1.47</v>
@@ -21609,7 +21609,7 @@
         <v>1.56</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU104" t="n">
         <v>1.14</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9399999999999999</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT118" t="n">
         <v>0.95</v>
@@ -24857,7 +24857,7 @@
         <v>1.41</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU120" t="n">
         <v>1.41</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT135" t="n">
         <v>0.95</v>
@@ -29120,7 +29120,7 @@
         <v>1.53</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU141" t="n">
         <v>0</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT145" t="n">
         <v>1.05</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -33383,7 +33383,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -34192,7 +34192,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AT166" t="n">
         <v>1.16</v>
@@ -34398,7 +34398,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -35004,7 +35004,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AT170" t="n">
         <v>1.44</v>
@@ -35207,7 +35207,7 @@
         <v>2.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AT171" t="n">
         <v>2.19</v>
@@ -35413,7 +35413,7 @@
         <v>2.19</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AU172" t="n">
         <v>1.17</v>
@@ -36425,7 +36425,7 @@
         <v>0.89</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT177" t="n">
         <v>0.79</v>
@@ -36487,7 +36487,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>4725926</v>
+        <v>4725927</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -36507,12 +36507,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Raya2</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Tapatío</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -36544,103 +36544,103 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S178" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T178" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="U178" t="n">
         <v>2</v>
       </c>
       <c r="V178" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="W178" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X178" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="Y178" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA178" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB178" t="n">
         <v>1.05</v>
       </c>
       <c r="AC178" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="AD178" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AE178" t="n">
-        <v>3.27</v>
+        <v>2.24</v>
       </c>
       <c r="AF178" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG178" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AH178" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AI178" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AJ178" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AK178" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AL178" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AM178" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN178" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO178" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AR178" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AS178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT178" t="n">
         <v>1.11</v>
       </c>
-      <c r="AT178" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AU178" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AV178" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AW178" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="AX178" t="n">
         <v>0</v>
@@ -36658,7 +36658,7 @@
         <v>1.5</v>
       </c>
       <c r="BC178" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BD178" t="n">
         <v>2.45</v>
@@ -36667,22 +36667,22 @@
         <v>3.4</v>
       </c>
       <c r="BF178" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG178" t="n">
         <v>2</v>
       </c>
       <c r="BH178" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI178" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ178" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK178" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -36690,7 +36690,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4725927</v>
+        <v>4725926</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -36710,12 +36710,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Raya2</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Morelia</t>
+          <t>Tapatío</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -36747,103 +36747,103 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R179" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S179" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T179" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="U179" t="n">
         <v>2</v>
       </c>
       <c r="V179" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="W179" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X179" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="Y179" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB179" t="n">
         <v>1.05</v>
       </c>
       <c r="AC179" t="n">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="AD179" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="AE179" t="n">
-        <v>2.24</v>
+        <v>3.27</v>
       </c>
       <c r="AF179" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG179" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AH179" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI179" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AJ179" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AK179" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AL179" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AM179" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AN179" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO179" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR179" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU179" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AV179" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AW179" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="AX179" t="n">
         <v>0</v>
@@ -36861,7 +36861,7 @@
         <v>1.5</v>
       </c>
       <c r="BC179" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="BD179" t="n">
         <v>2.45</v>
@@ -36870,22 +36870,22 @@
         <v>3.4</v>
       </c>
       <c r="BF179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG179" t="n">
         <v>2</v>
       </c>
       <c r="BH179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
         <v>8</v>
       </c>
-      <c r="BJ179" t="n">
-        <v>10</v>
-      </c>
       <c r="BK179" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
@@ -38052,7 +38052,7 @@
         <v>1.71</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU185" t="n">
         <v>1.21</v>
@@ -38455,7 +38455,7 @@
         <v>1.75</v>
       </c>
       <c r="AS187" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT187" t="n">
         <v>1.52</v>
@@ -39067,7 +39067,7 @@
         <v>2.52</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU190" t="n">
         <v>1.27</v>
@@ -40282,7 +40282,7 @@
         <v>0.25</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT196" t="n">
         <v>0.71</v>
@@ -42312,7 +42312,7 @@
         <v>0.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT206" t="n">
         <v>0.29</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -43330,7 +43330,7 @@
         <v>1.84</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU211" t="n">
         <v>1.39</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT215" t="n">
         <v>1.86</v>
@@ -44607,7 +44607,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>4725967</v>
+        <v>4725968</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -44627,12 +44627,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Leones Negros de la Universidad de Guadalajara</t>
+          <t>Cimarrones de Sonora</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Durango</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="I218" t="n">
@@ -44645,122 +44645,122 @@
         <v>0</v>
       </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N218" t="n">
         <v>1</v>
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q218" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R218" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S218" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T218" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="U218" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V218" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="W218" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="X218" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Y218" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Z218" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA218" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB218" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC218" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AD218" t="n">
-        <v>3.4</v>
+        <v>3.94</v>
       </c>
       <c r="AE218" t="n">
-        <v>3.6</v>
+        <v>5.71</v>
       </c>
       <c r="AF218" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG218" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH218" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AI218" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AJ218" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AK218" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AL218" t="n">
         <v>1.83</v>
       </c>
       <c r="AM218" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AN218" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AO218" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="AR218" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="AV218" t="n">
-        <v>1.35</v>
+        <v>1.04</v>
       </c>
       <c r="AW218" t="n">
-        <v>2.97</v>
+        <v>2.49</v>
       </c>
       <c r="AX218" t="n">
         <v>0</v>
@@ -44772,37 +44772,37 @@
         <v>0</v>
       </c>
       <c r="BA218" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BB218" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="BC218" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BD218" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BE218" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG218" t="n">
         <v>4</v>
       </c>
-      <c r="BF218" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG218" t="n">
+      <c r="BH218" t="n">
         <v>7</v>
       </c>
-      <c r="BH218" t="n">
-        <v>10</v>
-      </c>
       <c r="BI218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK218" t="n">
         <v>11</v>
-      </c>
-      <c r="BJ218" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK218" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="219">
@@ -44810,7 +44810,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>4725968</v>
+        <v>4725967</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -44830,12 +44830,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Cimarrones de Sonora</t>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="I219" t="n">
@@ -44848,122 +44848,122 @@
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
         <v>1</v>
       </c>
       <c r="O219" t="inlineStr">
         <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P219" t="inlineStr">
-        <is>
-          <t>['85']</t>
-        </is>
-      </c>
       <c r="Q219" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R219" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S219" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T219" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="U219" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V219" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="W219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z219" t="n">
         <v>1.36</v>
       </c>
-      <c r="X219" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y219" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z219" t="n">
+      <c r="AA219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH219" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA219" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB219" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC219" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD219" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AE219" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AF219" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG219" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH219" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AI219" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AJ219" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AK219" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AL219" t="n">
         <v>1.83</v>
       </c>
       <c r="AM219" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AN219" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AO219" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="AQ219" t="n">
-        <v>2.08</v>
+        <v>1.73</v>
       </c>
       <c r="AR219" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AT219" t="n">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AV219" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="AW219" t="n">
-        <v>2.49</v>
+        <v>2.97</v>
       </c>
       <c r="AX219" t="n">
         <v>0</v>
@@ -44975,37 +44975,37 @@
         <v>0</v>
       </c>
       <c r="BA219" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BB219" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="BC219" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="BD219" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="BE219" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="BF219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG219" t="n">
         <v>7</v>
       </c>
-      <c r="BG219" t="n">
-        <v>4</v>
-      </c>
       <c r="BH219" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI219" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BJ219" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK219" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220">
@@ -47387,7 +47387,7 @@
         <v>1.86</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT231" t="n">
         <v>1.86</v>
@@ -47593,7 +47593,7 @@
         <v>1.32</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU232" t="n">
         <v>1.42</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT233" t="n">
         <v>0.71</v>
@@ -51244,10 +51244,10 @@
         <v>1.69</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU250" t="n">
         <v>1.79</v>
@@ -51447,7 +51447,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS251" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT251" t="n">
         <v>0.79</v>
@@ -54495,7 +54495,7 @@
         <v>2.11</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU266" t="n">
         <v>1.56</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT269" t="n">
         <v>1.47</v>
@@ -55772,7 +55772,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>4726021</v>
+        <v>4726022</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -55792,12 +55792,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Cimarrones de Sonora</t>
+          <t>CA La Paz</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Dorados</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -55820,154 +55820,154 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>['90+7']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q273" t="n">
+        <v>3</v>
+      </c>
+      <c r="R273" t="n">
+        <v>5</v>
+      </c>
+      <c r="S273" t="n">
+        <v>8</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V273" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X273" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF273" t="n">
         <v>6</v>
-      </c>
-      <c r="R273" t="n">
-        <v>1</v>
-      </c>
-      <c r="S273" t="n">
-        <v>7</v>
-      </c>
-      <c r="T273" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U273" t="n">
-        <v>2</v>
-      </c>
-      <c r="V273" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="W273" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X273" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y273" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z273" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA273" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AB273" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC273" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AD273" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE273" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AF273" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG273" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH273" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI273" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ273" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AK273" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL273" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM273" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN273" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO273" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP273" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ273" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR273" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AS273" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT273" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AU273" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV273" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW273" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AX273" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY273" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ273" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA273" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BB273" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BC273" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BD273" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BE273" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF273" t="n">
-        <v>4</v>
       </c>
       <c r="BG273" t="n">
         <v>4</v>
       </c>
       <c r="BH273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ273" t="n">
         <v>8</v>
       </c>
-      <c r="BI273" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ273" t="n">
-        <v>12</v>
-      </c>
       <c r="BK273" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -55975,7 +55975,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>4726022</v>
+        <v>4726021</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -55995,12 +55995,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>CA La Paz</t>
+          <t>Cimarrones de Sonora</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -56023,112 +56023,112 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="Q274" t="n">
+        <v>6</v>
+      </c>
+      <c r="R274" t="n">
+        <v>1</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y274" t="n">
         <v>3</v>
       </c>
-      <c r="R274" t="n">
-        <v>5</v>
-      </c>
-      <c r="S274" t="n">
-        <v>8</v>
-      </c>
-      <c r="T274" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U274" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V274" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="W274" t="n">
+      <c r="Z274" t="n">
         <v>1.33</v>
       </c>
-      <c r="X274" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y274" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Z274" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AA274" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="AB274" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC274" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="AD274" t="n">
-        <v>3.9</v>
+        <v>3.03</v>
       </c>
       <c r="AE274" t="n">
-        <v>5.05</v>
+        <v>3.07</v>
       </c>
       <c r="AF274" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AG274" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH274" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AI274" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="AJ274" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="AK274" t="n">
-        <v>2.07</v>
+        <v>1.63</v>
       </c>
       <c r="AL274" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AM274" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="AN274" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AO274" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AP274" t="n">
-        <v>2.29</v>
+        <v>1.73</v>
       </c>
       <c r="AQ274" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR274" t="n">
-        <v>1.08</v>
+        <v>1.88</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.06</v>
+        <v>1.86</v>
       </c>
       <c r="AU274" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AV274" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="AW274" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="AX274" t="n">
         <v>0</v>
@@ -56140,37 +56140,37 @@
         <v>0</v>
       </c>
       <c r="BA274" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BB274" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="BC274" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BD274" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BE274" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BF274" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG274" t="n">
         <v>4</v>
       </c>
       <c r="BH274" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ274" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK274" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275">
@@ -56928,7 +56928,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT278" t="n">
         <v>1</v>
@@ -58149,7 +58149,7 @@
         <v>1.18</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU284" t="n">
         <v>1.39</v>
@@ -58349,7 +58349,7 @@
         <v>1.12</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT285" t="n">
         <v>1.14</v>
@@ -58552,7 +58552,7 @@
         <v>0.93</v>
       </c>
       <c r="AS286" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT286" t="n">
         <v>1.06</v>
@@ -62206,7 +62206,7 @@
         <v>1.2</v>
       </c>
       <c r="AS304" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT304" t="n">
         <v>1.06</v>
@@ -62409,7 +62409,7 @@
         <v>0.93</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT305" t="n">
         <v>0.9399999999999999</v>
@@ -64036,7 +64036,7 @@
         <v>1.75</v>
       </c>
       <c r="AT313" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AU313" t="n">
         <v>1.62</v>
@@ -65454,7 +65454,7 @@
         <v>0.88</v>
       </c>
       <c r="AS320" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -66469,7 +66469,7 @@
         <v>0.72</v>
       </c>
       <c r="AS325" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT325" t="n">
         <v>0.68</v>
@@ -66672,7 +66672,7 @@
         <v>1.17</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AT326" t="n">
         <v>1.14</v>
@@ -67078,7 +67078,7 @@
         <v>1.43</v>
       </c>
       <c r="AS328" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT328" t="n">
         <v>1.39</v>
@@ -67687,10 +67687,10 @@
         <v>1.95</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AU331" t="n">
         <v>1.76</v>
@@ -67890,10 +67890,10 @@
         <v>1.51</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68351,6 +68351,412 @@
       </c>
       <c r="BK334" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>5997003</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45052.625</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Raya2</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q335" t="n">
+        <v>4</v>
+      </c>
+      <c r="R335" t="n">
+        <v>1</v>
+      </c>
+      <c r="S335" t="n">
+        <v>5</v>
+      </c>
+      <c r="T335" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U335" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V335" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X335" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z335" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA335" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB335" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC335" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD335" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE335" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF335" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG335" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH335" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL335" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM335" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP335" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AQ335" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR335" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS335" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT335" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AU335" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV335" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW335" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ335" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA335" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB335" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC335" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD335" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE335" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF335" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG335" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH335" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI335" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ335" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK335" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>5997002</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45052.83333333334</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="n">
+        <v>1</v>
+      </c>
+      <c r="N336" t="n">
+        <v>2</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P336" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q336" t="n">
+        <v>12</v>
+      </c>
+      <c r="R336" t="n">
+        <v>7</v>
+      </c>
+      <c r="S336" t="n">
+        <v>19</v>
+      </c>
+      <c r="T336" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U336" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V336" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W336" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X336" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y336" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z336" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA336" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB336" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD336" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF336" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG336" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH336" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL336" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM336" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP336" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ336" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR336" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS336" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT336" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU336" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV336" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW336" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX336" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AZ336" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA336" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB336" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC336" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD336" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE336" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG336" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH336" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI336" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ336" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK336" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK336"/>
+  <dimension ref="A1:BK337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.53</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -7805,7 +7805,7 @@
         <v>1.53</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT37" t="n">
         <v>0.71</v>
@@ -11053,7 +11053,7 @@
         <v>1.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT53" t="n">
         <v>0.9399999999999999</v>
@@ -15110,10 +15110,10 @@
         <v>1.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU72" t="n">
         <v>1.47</v>
@@ -15925,7 +15925,7 @@
         <v>2.52</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.05</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT90" t="n">
         <v>1.06</v>
@@ -20391,7 +20391,7 @@
         <v>2.38</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.79</v>
@@ -22621,7 +22621,7 @@
         <v>0.17</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT109" t="n">
         <v>0.29</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT117" t="n">
         <v>0.65</v>
@@ -25263,7 +25263,7 @@
         <v>1.18</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU122" t="n">
         <v>1.13</v>
@@ -25728,7 +25728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>2440822</v>
+        <v>2440828</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -25748,140 +25748,140 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Cancún</t>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['48', '90+3']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['40', '77']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
         <v>3</v>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="n">
-        <v>2</v>
-      </c>
-      <c r="N125" t="n">
+      <c r="R125" t="n">
+        <v>8</v>
+      </c>
+      <c r="S125" t="n">
+        <v>11</v>
+      </c>
+      <c r="T125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y125" t="n">
         <v>3</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>['30']</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>['6', '45+2']</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
-        <v>6</v>
-      </c>
-      <c r="R125" t="n">
-        <v>2</v>
-      </c>
-      <c r="S125" t="n">
-        <v>8</v>
-      </c>
-      <c r="T125" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U125" t="n">
-        <v>2</v>
-      </c>
-      <c r="V125" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W125" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X125" t="n">
+      <c r="Z125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC125" t="n">
         <v>2.55</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>2.35</v>
       </c>
       <c r="AD125" t="n">
         <v>3.1</v>
       </c>
       <c r="AE125" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AF125" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN125" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM125" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>1.3</v>
       </c>
       <c r="AO125" t="n">
         <v>1.28</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AR125" t="n">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.06</v>
+        <v>1.52</v>
       </c>
       <c r="AU125" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AV125" t="n">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="AW125" t="n">
-        <v>1.88</v>
+        <v>2.92</v>
       </c>
       <c r="AX125" t="n">
         <v>0</v>
@@ -25893,37 +25893,37 @@
         <v>0</v>
       </c>
       <c r="BA125" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BB125" t="n">
         <v>1.67</v>
       </c>
       <c r="BC125" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BD125" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BE125" t="n">
         <v>4.1</v>
       </c>
       <c r="BF125" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH125" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI125" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ125" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK125" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>2440828</v>
+        <v>2440822</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25951,140 +25951,140 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Leones Negros de la Universidad de Guadalajara</t>
+          <t>Cancún</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Dorados</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>2</v>
       </c>
       <c r="N126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>['48', '90+3']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>['40', '77']</t>
+          <t>['6', '45+2']</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
         <v>8</v>
       </c>
-      <c r="S126" t="n">
-        <v>11</v>
-      </c>
       <c r="T126" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="U126" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V126" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W126" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X126" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z126" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC126" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AD126" t="n">
         <v>3.1</v>
       </c>
       <c r="AE126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AF126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG126" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH126" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI126" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ126" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK126" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AL126" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM126" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN126" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AO126" t="n">
         <v>1.28</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.52</v>
+        <v>1.06</v>
       </c>
       <c r="AU126" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AV126" t="n">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="AW126" t="n">
-        <v>2.92</v>
+        <v>1.88</v>
       </c>
       <c r="AX126" t="n">
         <v>0</v>
@@ -26096,37 +26096,37 @@
         <v>0</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BB126" t="n">
         <v>1.67</v>
       </c>
       <c r="BC126" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BD126" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BE126" t="n">
         <v>4.1</v>
       </c>
       <c r="BF126" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ126" t="n">
         <v>6</v>
       </c>
-      <c r="BH126" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI126" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ126" t="n">
-        <v>13</v>
-      </c>
       <c r="BK126" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127">
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT134" t="n">
         <v>1.06</v>
@@ -29526,7 +29526,7 @@
         <v>1.5</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU143" t="n">
         <v>1.23</v>
@@ -31147,7 +31147,7 @@
         <v>1.63</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT151" t="n">
         <v>1.14</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32974,10 +32974,10 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU160" t="n">
         <v>1.54</v>
@@ -33786,10 +33786,10 @@
         <v>1.58</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -34598,7 +34598,7 @@
         <v>2.32</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT168" t="n">
         <v>2.19</v>
@@ -34804,7 +34804,7 @@
         <v>2.19</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AU169" t="n">
         <v>1.17</v>
@@ -36225,7 +36225,7 @@
         <v>1.56</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU176" t="n">
         <v>1.1</v>
@@ -36487,7 +36487,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>4725927</v>
+        <v>4725926</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -36507,12 +36507,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Raya2</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Morelia</t>
+          <t>Tapatío</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -36544,103 +36544,103 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R178" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S178" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T178" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="U178" t="n">
         <v>2</v>
       </c>
       <c r="V178" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="W178" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X178" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="Y178" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA178" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB178" t="n">
         <v>1.05</v>
       </c>
       <c r="AC178" t="n">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="AD178" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="AE178" t="n">
-        <v>2.24</v>
+        <v>3.27</v>
       </c>
       <c r="AF178" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG178" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AH178" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI178" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AJ178" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AK178" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AL178" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AM178" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AN178" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO178" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR178" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU178" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AV178" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AW178" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="AX178" t="n">
         <v>0</v>
@@ -36658,7 +36658,7 @@
         <v>1.5</v>
       </c>
       <c r="BC178" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="BD178" t="n">
         <v>2.45</v>
@@ -36667,22 +36667,22 @@
         <v>3.4</v>
       </c>
       <c r="BF178" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG178" t="n">
         <v>2</v>
       </c>
       <c r="BH178" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ178" t="n">
         <v>8</v>
       </c>
-      <c r="BJ178" t="n">
-        <v>10</v>
-      </c>
       <c r="BK178" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179">
@@ -36690,7 +36690,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4725926</v>
+        <v>4725927</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -36710,12 +36710,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Raya2</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Tapatío</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -36747,103 +36747,103 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R179" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S179" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T179" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="U179" t="n">
         <v>2</v>
       </c>
       <c r="V179" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="W179" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X179" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="Y179" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB179" t="n">
         <v>1.05</v>
       </c>
       <c r="AC179" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="AD179" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AE179" t="n">
-        <v>3.27</v>
+        <v>2.24</v>
       </c>
       <c r="AF179" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG179" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AH179" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AI179" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AJ179" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AK179" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AL179" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AM179" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN179" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO179" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AQ179" t="n">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AR179" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AS179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT179" t="n">
         <v>1.11</v>
       </c>
-      <c r="AT179" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AU179" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AV179" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AW179" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="AX179" t="n">
         <v>0</v>
@@ -36861,7 +36861,7 @@
         <v>1.5</v>
       </c>
       <c r="BC179" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BD179" t="n">
         <v>2.45</v>
@@ -36870,22 +36870,22 @@
         <v>3.4</v>
       </c>
       <c r="BF179" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG179" t="n">
         <v>2</v>
       </c>
       <c r="BH179" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI179" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ179" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK179" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -38252,7 +38252,7 @@
         <v>0.6</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT186" t="n">
         <v>0.68</v>
@@ -39676,7 +39676,7 @@
         <v>1.75</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU193" t="n">
         <v>1.56</v>
@@ -41703,7 +41703,7 @@
         <v>1.18</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT203" t="n">
         <v>0.95</v>
@@ -43533,7 +43533,7 @@
         <v>1.94</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU212" t="n">
         <v>1.68</v>
@@ -45763,7 +45763,7 @@
         <v>0.75</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT223" t="n">
         <v>1.05</v>
@@ -46578,7 +46578,7 @@
         <v>1.84</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU227" t="n">
         <v>1.46</v>
@@ -49823,7 +49823,7 @@
         <v>1.47</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT243" t="n">
         <v>1.52</v>
@@ -50638,7 +50638,7 @@
         <v>1.41</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU247" t="n">
         <v>1.53</v>
@@ -52259,7 +52259,7 @@
         <v>0.92</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT255" t="n">
         <v>1</v>
@@ -54492,7 +54492,7 @@
         <v>1.57</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT266" t="n">
         <v>1.39</v>
@@ -55104,7 +55104,7 @@
         <v>1.94</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU269" t="n">
         <v>1.39</v>
@@ -57540,7 +57540,7 @@
         <v>1.29</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU281" t="n">
         <v>1.15</v>
@@ -60785,7 +60785,7 @@
         <v>1.83</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT297" t="n">
         <v>1.86</v>
@@ -62818,7 +62818,7 @@
         <v>1.32</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AU307" t="n">
         <v>1.42</v>
@@ -64236,7 +64236,7 @@
         <v>0.88</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AT314" t="n">
         <v>0.79</v>
@@ -66875,7 +66875,7 @@
         <v>1.21</v>
       </c>
       <c r="AS327" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT327" t="n">
         <v>1.17</v>
@@ -68093,10 +68093,10 @@
         <v>1.62</v>
       </c>
       <c r="AS333" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AU333" t="n">
         <v>1.41</v>
@@ -68756,6 +68756,209 @@
         <v>14</v>
       </c>
       <c r="BK336" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>5997004</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45053.83333333334</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Cimarrones de Sonora</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>1</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q337" t="n">
+        <v>3</v>
+      </c>
+      <c r="R337" t="n">
+        <v>10</v>
+      </c>
+      <c r="S337" t="n">
+        <v>13</v>
+      </c>
+      <c r="T337" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U337" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V337" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W337" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X337" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y337" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA337" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB337" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC337" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE337" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF337" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG337" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL337" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM337" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP337" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ337" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR337" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS337" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT337" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU337" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV337" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW337" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX337" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ337" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="BA337" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB337" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC337" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD337" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE337" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF337" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG337" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI337" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ337" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK337" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK337"/>
+  <dimension ref="A1:BK338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT10" t="n">
         <v>0.29</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT24" t="n">
         <v>0.65</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT38" t="n">
         <v>1.06</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT63" t="n">
         <v>1.11</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT81" t="n">
         <v>1.06</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT98" t="n">
         <v>1.4</v>
@@ -24448,7 +24448,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT118" t="n">
         <v>0.95</v>
@@ -29929,7 +29929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT145" t="n">
         <v>1.05</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -33383,7 +33383,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -34192,7 +34192,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT166" t="n">
         <v>1.16</v>
@@ -34398,7 +34398,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -35004,7 +35004,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT170" t="n">
         <v>1.44</v>
@@ -35207,7 +35207,7 @@
         <v>2.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT171" t="n">
         <v>2.19</v>
@@ -35413,7 +35413,7 @@
         <v>2.19</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.17</v>
@@ -36425,7 +36425,7 @@
         <v>0.89</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT177" t="n">
         <v>0.79</v>
@@ -40282,7 +40282,7 @@
         <v>0.25</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT196" t="n">
         <v>0.71</v>
@@ -42718,7 +42718,7 @@
         <v>1</v>
       </c>
       <c r="AS208" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT208" t="n">
         <v>1</v>
@@ -47387,7 +47387,7 @@
         <v>1.86</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT231" t="n">
         <v>1.86</v>
@@ -51244,7 +51244,7 @@
         <v>1.69</v>
       </c>
       <c r="AS250" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT250" t="n">
         <v>1.39</v>
@@ -56928,7 +56928,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT278" t="n">
         <v>1</v>
@@ -58349,7 +58349,7 @@
         <v>1.12</v>
       </c>
       <c r="AS285" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT285" t="n">
         <v>1.14</v>
@@ -62409,7 +62409,7 @@
         <v>0.93</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT305" t="n">
         <v>0.9399999999999999</v>
@@ -66469,7 +66469,7 @@
         <v>0.72</v>
       </c>
       <c r="AS325" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AT325" t="n">
         <v>0.68</v>
@@ -67690,7 +67690,7 @@
         <v>1.24</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AU331" t="n">
         <v>1.76</v>
@@ -67893,7 +67893,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68499,7 +68499,7 @@
         <v>1.28</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AT335" t="n">
         <v>1.24</v>
@@ -68702,7 +68702,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT336" t="n">
         <v>1.27</v>
@@ -68960,6 +68960,209 @@
       </c>
       <c r="BK337" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>6070780</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45056.83333333334</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q338" t="n">
+        <v>8</v>
+      </c>
+      <c r="R338" t="n">
+        <v>2</v>
+      </c>
+      <c r="S338" t="n">
+        <v>10</v>
+      </c>
+      <c r="T338" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U338" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V338" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W338" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X338" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y338" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z338" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA338" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB338" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC338" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD338" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE338" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AF338" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG338" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH338" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL338" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM338" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP338" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ338" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AR338" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS338" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT338" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU338" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW338" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX338" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ338" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BA338" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB338" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC338" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD338" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE338" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BF338" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG338" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH338" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI338" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ338" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK338" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK338"/>
+  <dimension ref="A1:BK339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.32</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.84</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU28" t="n">
         <v>1.42</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT37" t="n">
         <v>0.71</v>
@@ -8617,7 +8617,7 @@
         <v>1.94</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU40" t="n">
         <v>1.75</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU49" t="n">
         <v>1.24</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT53" t="n">
         <v>0.9399999999999999</v>
@@ -14504,7 +14504,7 @@
         <v>1.53</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU69" t="n">
         <v>1.78</v>
@@ -15110,7 +15110,7 @@
         <v>1.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT72" t="n">
         <v>1.4</v>
@@ -18564,7 +18564,7 @@
         <v>1.11</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU89" t="n">
         <v>1.66</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT90" t="n">
         <v>1.06</v>
@@ -21203,7 +21203,7 @@
         <v>1.29</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU102" t="n">
         <v>1.18</v>
@@ -22621,7 +22621,7 @@
         <v>0.17</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT109" t="n">
         <v>0.29</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT117" t="n">
         <v>0.65</v>
@@ -25669,7 +25669,7 @@
         <v>1.56</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU124" t="n">
         <v>1.12</v>
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT134" t="n">
         <v>1.06</v>
@@ -28308,7 +28308,7 @@
         <v>1.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU137" t="n">
         <v>1.61</v>
@@ -31147,7 +31147,7 @@
         <v>1.63</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT151" t="n">
         <v>1.14</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32974,7 +32974,7 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>1.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AU161" t="n">
         <v>1.15</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -33989,7 +33989,7 @@
         <v>1.21</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AT165" t="n">
         <v>1.11</v>
@@ -34601,7 +34601,7 @@
         <v>1.56</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AU168" t="n">
         <v>1.27</v>
@@ -34801,7 +34801,7 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AT169" t="n">
         <v>1.56</v>
@@ -35210,7 +35210,7 @@
         <v>1.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AU171" t="n">
         <v>1.88</v>
@@ -35410,7 +35410,7 @@
         <v>2.05</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AT172" t="n">
         <v>1.93</v>
@@ -37646,7 +37646,7 @@
         <v>1.53</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU183" t="n">
         <v>0</v>
@@ -38252,7 +38252,7 @@
         <v>0.6</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT186" t="n">
         <v>0.68</v>
@@ -41703,7 +41703,7 @@
         <v>1.18</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT203" t="n">
         <v>0.95</v>
@@ -44142,7 +44142,7 @@
         <v>1.94</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU215" t="n">
         <v>1.45</v>
@@ -45763,7 +45763,7 @@
         <v>0.75</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT223" t="n">
         <v>1.05</v>
@@ -47390,7 +47390,7 @@
         <v>2.32</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU231" t="n">
         <v>1.84</v>
@@ -49217,7 +49217,7 @@
         <v>1.18</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU240" t="n">
         <v>1.17</v>
@@ -49823,7 +49823,7 @@
         <v>1.47</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT243" t="n">
         <v>1.52</v>
@@ -52259,7 +52259,7 @@
         <v>0.92</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT255" t="n">
         <v>1</v>
@@ -53074,7 +53074,7 @@
         <v>1.5</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU259" t="n">
         <v>1.22</v>
@@ -54492,7 +54492,7 @@
         <v>1.57</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT266" t="n">
         <v>1.39</v>
@@ -56119,7 +56119,7 @@
         <v>1.71</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU274" t="n">
         <v>1.46</v>
@@ -60785,10 +60785,10 @@
         <v>1.83</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU297" t="n">
         <v>1.64</v>
@@ -63833,7 +63833,7 @@
         <v>1.41</v>
       </c>
       <c r="AT312" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="AU312" t="n">
         <v>1.52</v>
@@ -64236,7 +64236,7 @@
         <v>0.88</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AT314" t="n">
         <v>0.79</v>
@@ -67487,7 +67487,7 @@
         <v>1.44</v>
       </c>
       <c r="AT330" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AU330" t="n">
         <v>1.69</v>
@@ -68096,7 +68096,7 @@
         <v>1.56</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AU333" t="n">
         <v>1.41</v>
@@ -68296,7 +68296,7 @@
         <v>1.48</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="AT334" t="n">
         <v>1.44</v>
@@ -68905,7 +68905,7 @@
         <v>1.6</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT337" t="n">
         <v>1.56</v>
@@ -69163,6 +69163,209 @@
       </c>
       <c r="BK338" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>6080876</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45057.83333333334</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="n">
+        <v>1</v>
+      </c>
+      <c r="N339" t="n">
+        <v>2</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P339" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q339" t="n">
+        <v>2</v>
+      </c>
+      <c r="R339" t="n">
+        <v>3</v>
+      </c>
+      <c r="S339" t="n">
+        <v>5</v>
+      </c>
+      <c r="T339" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U339" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V339" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W339" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X339" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y339" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z339" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA339" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC339" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD339" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE339" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF339" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG339" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH339" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL339" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM339" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP339" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ339" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR339" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS339" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT339" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU339" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV339" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW339" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX339" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ339" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BA339" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB339" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC339" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BD339" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE339" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK339"/>
+  <dimension ref="A1:BK341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.68</v>
@@ -2324,7 +2324,7 @@
         <v>1.11</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.41</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT18" t="n">
         <v>0.71</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU26" t="n">
         <v>1.05</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT33" t="n">
         <v>1.05</v>
@@ -7399,7 +7399,7 @@
         <v>1.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU34" t="n">
         <v>0.66</v>
@@ -9632,7 +9632,7 @@
         <v>1.84</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -11459,7 +11459,7 @@
         <v>1.32</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -11862,7 +11862,7 @@
         <v>0.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT56" t="n">
         <v>1.06</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>1.39</v>
@@ -13286,7 +13286,7 @@
         <v>2.32</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU63" t="n">
         <v>1.52</v>
@@ -14910,7 +14910,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU71" t="n">
         <v>0.97</v>
@@ -15922,7 +15922,7 @@
         <v>1</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT76" t="n">
         <v>1.4</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -16737,7 +16737,7 @@
         <v>1.53</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU85" t="n">
         <v>1.22</v>
@@ -18970,7 +18970,7 @@
         <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU91" t="n">
         <v>1.52</v>
@@ -19576,10 +19576,10 @@
         <v>1.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU94" t="n">
         <v>1.08</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -21812,7 +21812,7 @@
         <v>1.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9399999999999999</v>
@@ -23433,7 +23433,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT113" t="n">
         <v>0.79</v>
@@ -25466,7 +25466,7 @@
         <v>1.32</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -25728,7 +25728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>2440828</v>
+        <v>2440822</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -25748,140 +25748,140 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Leones Negros de la Universidad de Guadalajara</t>
+          <t>Cancún</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Dorados</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>2</v>
       </c>
       <c r="N125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>['48', '90+3']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>['40', '77']</t>
+          <t>['6', '45+2']</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="n">
         <v>8</v>
       </c>
-      <c r="S125" t="n">
-        <v>11</v>
-      </c>
       <c r="T125" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="U125" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V125" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="W125" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X125" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Y125" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z125" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB125" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC125" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AD125" t="n">
         <v>3.1</v>
       </c>
       <c r="AE125" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AF125" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG125" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH125" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI125" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AJ125" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AK125" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AL125" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AM125" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN125" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AO125" t="n">
         <v>1.28</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR125" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.52</v>
+        <v>1.06</v>
       </c>
       <c r="AU125" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AV125" t="n">
-        <v>1.32</v>
+        <v>0.74</v>
       </c>
       <c r="AW125" t="n">
-        <v>2.92</v>
+        <v>1.88</v>
       </c>
       <c r="AX125" t="n">
         <v>0</v>
@@ -25893,37 +25893,37 @@
         <v>0</v>
       </c>
       <c r="BA125" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="BB125" t="n">
         <v>1.67</v>
       </c>
       <c r="BC125" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="BD125" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="BE125" t="n">
         <v>4.1</v>
       </c>
       <c r="BF125" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ125" t="n">
         <v>6</v>
       </c>
-      <c r="BH125" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>13</v>
-      </c>
       <c r="BK125" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>2440822</v>
+        <v>2440828</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25951,140 +25951,140 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Cancún</t>
+          <t>Leones Negros de la Universidad de Guadalajara</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['48', '90+3']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['40', '77']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
         <v>3</v>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="n">
-        <v>2</v>
-      </c>
-      <c r="N126" t="n">
+      <c r="R126" t="n">
+        <v>8</v>
+      </c>
+      <c r="S126" t="n">
+        <v>11</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y126" t="n">
         <v>3</v>
       </c>
-      <c r="O126" t="inlineStr">
-        <is>
-          <t>['30']</t>
-        </is>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>['6', '45+2']</t>
-        </is>
-      </c>
-      <c r="Q126" t="n">
-        <v>6</v>
-      </c>
-      <c r="R126" t="n">
-        <v>2</v>
-      </c>
-      <c r="S126" t="n">
-        <v>8</v>
-      </c>
-      <c r="T126" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U126" t="n">
-        <v>2</v>
-      </c>
-      <c r="V126" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W126" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X126" t="n">
+      <c r="Z126" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC126" t="n">
         <v>2.55</v>
-      </c>
-      <c r="Y126" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>2.35</v>
       </c>
       <c r="AD126" t="n">
         <v>3.1</v>
       </c>
       <c r="AE126" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AF126" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG126" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN126" t="n">
         <v>1.36</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM126" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>1.3</v>
       </c>
       <c r="AO126" t="n">
         <v>1.28</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="AR126" t="n">
-        <v>1.17</v>
+        <v>1.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="AU126" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="AV126" t="n">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="AW126" t="n">
-        <v>1.88</v>
+        <v>2.92</v>
       </c>
       <c r="AX126" t="n">
         <v>0</v>
@@ -26096,37 +26096,37 @@
         <v>0</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BB126" t="n">
         <v>1.67</v>
       </c>
       <c r="BC126" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BD126" t="n">
-        <v>2.63</v>
+        <v>2.95</v>
       </c>
       <c r="BE126" t="n">
         <v>4.1</v>
       </c>
       <c r="BF126" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI126" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ126" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BK126" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
@@ -27087,10 +27087,10 @@
         <v>1.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU131" t="n">
         <v>1.11</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>0.95</v>
@@ -28917,7 +28917,7 @@
         <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU140" t="n">
         <v>1.04</v>
@@ -31756,7 +31756,7 @@
         <v>0.57</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT154" t="n">
         <v>0.9399999999999999</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32974,7 +32974,7 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>1.11</v>
       </c>
       <c r="AT161" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU161" t="n">
         <v>1.15</v>
@@ -33383,7 +33383,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -33989,7 +33989,7 @@
         <v>1.21</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AT165" t="n">
         <v>1.11</v>
@@ -34192,7 +34192,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AT166" t="n">
         <v>1.16</v>
@@ -34398,7 +34398,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -34601,7 +34601,7 @@
         <v>1.56</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU168" t="n">
         <v>1.27</v>
@@ -34801,7 +34801,7 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AT169" t="n">
         <v>1.56</v>
@@ -35004,7 +35004,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AT170" t="n">
         <v>1.44</v>
@@ -35207,10 +35207,10 @@
         <v>2.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AT171" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU171" t="n">
         <v>1.88</v>
@@ -35410,10 +35410,10 @@
         <v>2.05</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AU172" t="n">
         <v>1.17</v>
@@ -35613,7 +35613,7 @@
         <v>0.75</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT173" t="n">
         <v>0.65</v>
@@ -36834,7 +36834,7 @@
         <v>1.53</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -38455,10 +38455,10 @@
         <v>1.75</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU187" t="n">
         <v>1.43</v>
@@ -39064,7 +39064,7 @@
         <v>1.5</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT190" t="n">
         <v>1.39</v>
@@ -40082,7 +40082,7 @@
         <v>1.94</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU195" t="n">
         <v>1.59</v>
@@ -40894,7 +40894,7 @@
         <v>1.71</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU199" t="n">
         <v>1.38</v>
@@ -41094,7 +41094,7 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT200" t="n">
         <v>1.14</v>
@@ -42312,7 +42312,7 @@
         <v>0.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT206" t="n">
         <v>0.29</v>
@@ -43736,7 +43736,7 @@
         <v>1.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU213" t="n">
         <v>1.24</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT215" t="n">
         <v>1.82</v>
@@ -44548,7 +44548,7 @@
         <v>1.29</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU217" t="n">
         <v>1.13</v>
@@ -45154,7 +45154,7 @@
         <v>1.4</v>
       </c>
       <c r="AS220" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT220" t="n">
         <v>1.06</v>
@@ -46375,7 +46375,7 @@
         <v>1.41</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU226" t="n">
         <v>1.64</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT233" t="n">
         <v>0.71</v>
@@ -49826,7 +49826,7 @@
         <v>2.1</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU243" t="n">
         <v>1.55</v>
@@ -50841,7 +50841,7 @@
         <v>1.29</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU248" t="n">
         <v>1.09</v>
@@ -51447,7 +51447,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT251" t="n">
         <v>0.79</v>
@@ -51650,7 +51650,7 @@
         <v>0.92</v>
       </c>
       <c r="AS252" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT252" t="n">
         <v>1</v>
@@ -52668,7 +52668,7 @@
         <v>1.84</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU257" t="n">
         <v>1.41</v>
@@ -54698,7 +54698,7 @@
         <v>1</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU267" t="n">
         <v>1.44</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT269" t="n">
         <v>1.4</v>
@@ -55304,7 +55304,7 @@
         <v>0.6</v>
       </c>
       <c r="AS270" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT270" t="n">
         <v>0.68</v>
@@ -55772,7 +55772,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>4726022</v>
+        <v>4726021</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -55792,12 +55792,12 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>CA La Paz</t>
+          <t>Cimarrones de Sonora</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Dorados</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="I273" t="n">
@@ -55820,112 +55820,112 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>['85']</t>
+          <t>['90+7']</t>
         </is>
       </c>
       <c r="Q273" t="n">
+        <v>6</v>
+      </c>
+      <c r="R273" t="n">
+        <v>1</v>
+      </c>
+      <c r="S273" t="n">
+        <v>7</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y273" t="n">
         <v>3</v>
       </c>
-      <c r="R273" t="n">
-        <v>5</v>
-      </c>
-      <c r="S273" t="n">
-        <v>8</v>
-      </c>
-      <c r="T273" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U273" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="V273" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="W273" t="n">
+      <c r="Z273" t="n">
         <v>1.33</v>
       </c>
-      <c r="X273" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="Y273" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Z273" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AA273" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="AB273" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AC273" t="n">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="AD273" t="n">
-        <v>3.9</v>
+        <v>3.03</v>
       </c>
       <c r="AE273" t="n">
-        <v>5.05</v>
+        <v>3.07</v>
       </c>
       <c r="AF273" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="AG273" t="n">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH273" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="AI273" t="n">
-        <v>3.74</v>
+        <v>2.9</v>
       </c>
       <c r="AJ273" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="AK273" t="n">
-        <v>2.07</v>
+        <v>1.63</v>
       </c>
       <c r="AL273" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AM273" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="AN273" t="n">
-        <v>1.16</v>
+        <v>1.33</v>
       </c>
       <c r="AO273" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AP273" t="n">
-        <v>2.29</v>
+        <v>1.73</v>
       </c>
       <c r="AQ273" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR273" t="n">
-        <v>1.08</v>
+        <v>1.88</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="AU273" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AV273" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
       <c r="AW273" t="n">
-        <v>2.55</v>
+        <v>2.64</v>
       </c>
       <c r="AX273" t="n">
         <v>0</v>
@@ -55937,37 +55937,37 @@
         <v>0</v>
       </c>
       <c r="BA273" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BB273" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="BC273" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BD273" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="BE273" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BF273" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG273" t="n">
         <v>4</v>
       </c>
       <c r="BH273" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ273" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK273" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
@@ -55975,7 +55975,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>4726021</v>
+        <v>4726022</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -55995,12 +55995,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Cimarrones de Sonora</t>
+          <t>CA La Paz</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Dorados</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -56023,154 +56023,154 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>['90+7']</t>
+          <t>['85']</t>
         </is>
       </c>
       <c r="Q274" t="n">
+        <v>3</v>
+      </c>
+      <c r="R274" t="n">
+        <v>5</v>
+      </c>
+      <c r="S274" t="n">
+        <v>8</v>
+      </c>
+      <c r="T274" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V274" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF274" t="n">
         <v>6</v>
-      </c>
-      <c r="R274" t="n">
-        <v>1</v>
-      </c>
-      <c r="S274" t="n">
-        <v>7</v>
-      </c>
-      <c r="T274" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U274" t="n">
-        <v>2</v>
-      </c>
-      <c r="V274" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="W274" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X274" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y274" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z274" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA274" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AB274" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC274" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AD274" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AE274" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="AF274" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG274" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH274" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI274" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ274" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AK274" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AL274" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM274" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN274" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AO274" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP274" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ274" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR274" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AS274" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AT274" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AU274" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV274" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AW274" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AX274" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY274" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ274" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA274" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BB274" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="BC274" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BD274" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BE274" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="BF274" t="n">
-        <v>4</v>
       </c>
       <c r="BG274" t="n">
         <v>4</v>
       </c>
       <c r="BH274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ274" t="n">
         <v>8</v>
       </c>
-      <c r="BI274" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ274" t="n">
-        <v>12</v>
-      </c>
       <c r="BK274" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -57134,7 +57134,7 @@
         <v>1.75</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57740,7 +57740,7 @@
         <v>1</v>
       </c>
       <c r="AS282" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT282" t="n">
         <v>0.95</v>
@@ -58552,7 +58552,7 @@
         <v>0.93</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT286" t="n">
         <v>1.06</v>
@@ -58758,7 +58758,7 @@
         <v>1</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU287" t="n">
         <v>1.39</v>
@@ -60382,7 +60382,7 @@
         <v>1.5</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU295" t="n">
         <v>1.31</v>
@@ -61597,7 +61597,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS301" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT301" t="n">
         <v>1</v>
@@ -61803,7 +61803,7 @@
         <v>1.18</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU302" t="n">
         <v>1.39</v>
@@ -62206,7 +62206,7 @@
         <v>1.2</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT304" t="n">
         <v>1.06</v>
@@ -63630,7 +63630,7 @@
         <v>1.94</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU311" t="n">
         <v>1.6</v>
@@ -65254,7 +65254,7 @@
         <v>1.71</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU319" t="n">
         <v>1.43</v>
@@ -65454,7 +65454,7 @@
         <v>0.88</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -65657,7 +65657,7 @@
         <v>0.31</v>
       </c>
       <c r="AS321" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="AT321" t="n">
         <v>0.29</v>
@@ -67487,7 +67487,7 @@
         <v>1.44</v>
       </c>
       <c r="AT330" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU330" t="n">
         <v>1.69</v>
@@ -67690,7 +67690,7 @@
         <v>1.24</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AU331" t="n">
         <v>1.76</v>
@@ -67893,7 +67893,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68096,7 +68096,7 @@
         <v>1.56</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AU333" t="n">
         <v>1.41</v>
@@ -68296,7 +68296,7 @@
         <v>1.48</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AT334" t="n">
         <v>1.44</v>
@@ -68499,7 +68499,7 @@
         <v>1.28</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AT335" t="n">
         <v>1.24</v>
@@ -68702,7 +68702,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AT336" t="n">
         <v>1.27</v>
@@ -68905,7 +68905,7 @@
         <v>1.6</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT337" t="n">
         <v>1.56</v>
@@ -69108,10 +69108,10 @@
         <v>1.49</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AU338" t="n">
         <v>1.86</v>
@@ -69311,10 +69311,10 @@
         <v>2.19</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AT339" t="n">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="AU339" t="n">
         <v>1.66</v>
@@ -69350,22 +69350,428 @@
         <v>3.4</v>
       </c>
       <c r="BF339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ339" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK339" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6070779</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45059.83333333334</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>1</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>1</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P340" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q340" t="n">
+        <v>1</v>
+      </c>
+      <c r="R340" t="n">
+        <v>5</v>
+      </c>
+      <c r="S340" t="n">
         <v>6</v>
       </c>
-      <c r="BG339" t="n">
+      <c r="T340" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U340" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V340" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W340" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X340" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y340" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Z340" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA340" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB340" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC340" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD340" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE340" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF340" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG340" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH340" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL340" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP340" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ340" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR340" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS340" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT340" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU340" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV340" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW340" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ340" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA340" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB340" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC340" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD340" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE340" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BF340" t="n">
         <v>6</v>
       </c>
-      <c r="BH339" t="n">
+      <c r="BG340" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH340" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI340" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ340" t="n">
         <v>11</v>
       </c>
-      <c r="BI339" t="n">
+      <c r="BK340" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6080875</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45060.83333333334</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
         <v>3</v>
       </c>
-      <c r="BJ339" t="n">
+      <c r="N341" t="n">
+        <v>4</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P341" t="inlineStr">
+        <is>
+          <t>['46', '52', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q341" t="n">
+        <v>5</v>
+      </c>
+      <c r="R341" t="n">
+        <v>4</v>
+      </c>
+      <c r="S341" t="n">
+        <v>9</v>
+      </c>
+      <c r="T341" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U341" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V341" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="W341" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X341" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y341" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z341" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA341" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB341" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC341" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD341" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE341" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AF341" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG341" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH341" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL341" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM341" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP341" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ341" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AR341" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS341" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT341" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AU341" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW341" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ341" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA341" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB341" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC341" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD341" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE341" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF341" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI341" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ341" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK341" t="n">
         <v>17</v>
-      </c>
-      <c r="BK339" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK341"/>
+  <dimension ref="A1:BK342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>1.32</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU15" t="n">
         <v>1.06</v>
@@ -7196,7 +7196,7 @@
         <v>2.41</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU33" t="n">
         <v>1.42</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>0.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.53</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU50" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>2</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>0.9399999999999999</v>
@@ -15110,7 +15110,7 @@
         <v>1.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
         <v>1.4</v>
@@ -18158,7 +18158,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU87" t="n">
         <v>1</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.06</v>
@@ -22015,7 +22015,7 @@
         <v>1.71</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22621,7 +22621,7 @@
         <v>0.17</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT109" t="n">
         <v>0.29</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT117" t="n">
         <v>0.65</v>
@@ -24654,7 +24654,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU119" t="n">
         <v>1.05</v>
@@ -27696,7 +27696,7 @@
         <v>0.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT134" t="n">
         <v>1.06</v>
@@ -29932,7 +29932,7 @@
         <v>2.32</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU145" t="n">
         <v>1.82</v>
@@ -30744,7 +30744,7 @@
         <v>1.94</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU149" t="n">
         <v>1.56</v>
@@ -31147,7 +31147,7 @@
         <v>1.63</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT151" t="n">
         <v>1.14</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU153" t="n">
         <v>1.42</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32974,7 +32974,7 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -36631,7 +36631,7 @@
         <v>1.11</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU178" t="n">
         <v>1.6</v>
@@ -38252,7 +38252,7 @@
         <v>0.6</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT186" t="n">
         <v>0.68</v>
@@ -40488,7 +40488,7 @@
         <v>1.41</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU197" t="n">
         <v>1.55</v>
@@ -41703,7 +41703,7 @@
         <v>1.18</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT203" t="n">
         <v>0.95</v>
@@ -45763,10 +45763,10 @@
         <v>0.75</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU223" t="n">
         <v>1.58</v>
@@ -48202,7 +48202,7 @@
         <v>1.53</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU235" t="n">
         <v>1.44</v>
@@ -49823,7 +49823,7 @@
         <v>1.47</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT243" t="n">
         <v>1.45</v>
@@ -52259,7 +52259,7 @@
         <v>0.92</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT255" t="n">
         <v>1</v>
@@ -53480,7 +53480,7 @@
         <v>1.75</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU261" t="n">
         <v>1.67</v>
@@ -54492,7 +54492,7 @@
         <v>1.57</v>
       </c>
       <c r="AS266" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT266" t="n">
         <v>1.39</v>
@@ -56728,7 +56728,7 @@
         <v>1.84</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU277" t="n">
         <v>1.36</v>
@@ -59976,7 +59976,7 @@
         <v>1.29</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU293" t="n">
         <v>1.15</v>
@@ -60785,7 +60785,7 @@
         <v>1.83</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT297" t="n">
         <v>1.82</v>
@@ -63427,7 +63427,7 @@
         <v>1.56</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AU310" t="n">
         <v>1.26</v>
@@ -64236,7 +64236,7 @@
         <v>0.88</v>
       </c>
       <c r="AS314" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT314" t="n">
         <v>0.79</v>
@@ -67893,7 +67893,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68096,7 +68096,7 @@
         <v>1.56</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AU333" t="n">
         <v>1.41</v>
@@ -68702,7 +68702,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AT336" t="n">
         <v>1.27</v>
@@ -68905,7 +68905,7 @@
         <v>1.6</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT337" t="n">
         <v>1.56</v>
@@ -69111,7 +69111,7 @@
         <v>1.89</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AU338" t="n">
         <v>1.86</v>
@@ -69311,7 +69311,7 @@
         <v>2.19</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AT339" t="n">
         <v>2.11</v>
@@ -69514,7 +69514,7 @@
         <v>1.93</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AT340" t="n">
         <v>1.89</v>
@@ -69720,7 +69720,7 @@
         <v>2.11</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AU341" t="n">
         <v>1.44</v>
@@ -69772,6 +69772,209 @@
       </c>
       <c r="BK341" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6137210</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45063.91666666666</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>2</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2</v>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="n">
+        <v>2</v>
+      </c>
+      <c r="N342" t="n">
+        <v>3</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P342" t="inlineStr">
+        <is>
+          <t>['16', '43']</t>
+        </is>
+      </c>
+      <c r="Q342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T342" t="n">
+        <v>0</v>
+      </c>
+      <c r="U342" t="n">
+        <v>0</v>
+      </c>
+      <c r="V342" t="n">
+        <v>0</v>
+      </c>
+      <c r="W342" t="n">
+        <v>0</v>
+      </c>
+      <c r="X342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ342" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AR342" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS342" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT342" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AU342" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV342" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW342" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE342" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ342" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK342" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK342"/>
+  <dimension ref="A1:BK343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT7" t="n">
         <v>0.68</v>
@@ -2324,7 +2324,7 @@
         <v>1.11</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU26" t="n">
         <v>1.05</v>
@@ -9632,7 +9632,7 @@
         <v>1.84</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT62" t="n">
         <v>1.39</v>
@@ -13286,7 +13286,7 @@
         <v>2.32</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU63" t="n">
         <v>1.52</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -16737,7 +16737,7 @@
         <v>1.53</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -19579,7 +19579,7 @@
         <v>2.41</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU94" t="n">
         <v>1.08</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9399999999999999</v>
@@ -25466,7 +25466,7 @@
         <v>1.32</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT135" t="n">
         <v>0.95</v>
@@ -28917,7 +28917,7 @@
         <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU140" t="n">
         <v>1.04</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32974,7 +32974,7 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -36834,7 +36834,7 @@
         <v>1.53</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -38455,7 +38455,7 @@
         <v>1.75</v>
       </c>
       <c r="AS187" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT187" t="n">
         <v>1.45</v>
@@ -40082,7 +40082,7 @@
         <v>1.94</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU195" t="n">
         <v>1.59</v>
@@ -42312,7 +42312,7 @@
         <v>0.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT206" t="n">
         <v>0.29</v>
@@ -43736,7 +43736,7 @@
         <v>1.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU213" t="n">
         <v>1.24</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT215" t="n">
         <v>1.82</v>
@@ -46375,7 +46375,7 @@
         <v>1.41</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU226" t="n">
         <v>1.64</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT233" t="n">
         <v>0.71</v>
@@ -50841,7 +50841,7 @@
         <v>1.29</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU248" t="n">
         <v>1.09</v>
@@ -51447,7 +51447,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS251" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT251" t="n">
         <v>0.79</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT269" t="n">
         <v>1.4</v>
@@ -57134,7 +57134,7 @@
         <v>1.75</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -58552,7 +58552,7 @@
         <v>0.93</v>
       </c>
       <c r="AS286" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT286" t="n">
         <v>1.06</v>
@@ -58758,7 +58758,7 @@
         <v>1</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU287" t="n">
         <v>1.39</v>
@@ -61803,7 +61803,7 @@
         <v>1.18</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU302" t="n">
         <v>1.39</v>
@@ -62206,7 +62206,7 @@
         <v>1.2</v>
       </c>
       <c r="AS304" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT304" t="n">
         <v>1.06</v>
@@ -65254,7 +65254,7 @@
         <v>1.71</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AU319" t="n">
         <v>1.43</v>
@@ -65454,7 +65454,7 @@
         <v>0.88</v>
       </c>
       <c r="AS320" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -67893,7 +67893,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68096,7 +68096,7 @@
         <v>1.56</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AU333" t="n">
         <v>1.41</v>
@@ -68702,7 +68702,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT336" t="n">
         <v>1.27</v>
@@ -68905,7 +68905,7 @@
         <v>1.6</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT337" t="n">
         <v>1.56</v>
@@ -69111,7 +69111,7 @@
         <v>1.89</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AU338" t="n">
         <v>1.86</v>
@@ -69311,7 +69311,7 @@
         <v>2.19</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT339" t="n">
         <v>2.11</v>
@@ -69514,7 +69514,7 @@
         <v>1.93</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT340" t="n">
         <v>1.89</v>
@@ -69720,7 +69720,7 @@
         <v>2.11</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AU341" t="n">
         <v>1.44</v>
@@ -69920,10 +69920,10 @@
         <v>1.51</v>
       </c>
       <c r="AS342" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AU342" t="n">
         <v>1.66</v>
@@ -69974,6 +69974,209 @@
         <v>-1</v>
       </c>
       <c r="BK342" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>6137211</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45067.00347222222</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>1</v>
+      </c>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>2</v>
+      </c>
+      <c r="N343" t="n">
+        <v>3</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P343" t="inlineStr">
+        <is>
+          <t>['32', '62']</t>
+        </is>
+      </c>
+      <c r="Q343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T343" t="n">
+        <v>0</v>
+      </c>
+      <c r="U343" t="n">
+        <v>0</v>
+      </c>
+      <c r="V343" t="n">
+        <v>0</v>
+      </c>
+      <c r="W343" t="n">
+        <v>0</v>
+      </c>
+      <c r="X343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ343" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR343" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS343" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT343" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AU343" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV343" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW343" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE343" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK343" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT7" t="n">
         <v>0.68</v>
@@ -2324,7 +2324,7 @@
         <v>1.11</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU26" t="n">
         <v>1.05</v>
@@ -9632,7 +9632,7 @@
         <v>1.84</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU45" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT62" t="n">
         <v>1.39</v>
@@ -13286,7 +13286,7 @@
         <v>2.32</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU63" t="n">
         <v>1.52</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -16737,7 +16737,7 @@
         <v>1.53</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -19579,7 +19579,7 @@
         <v>2.41</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU94" t="n">
         <v>1.08</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9399999999999999</v>
@@ -25466,7 +25466,7 @@
         <v>1.32</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU123" t="n">
         <v>1.34</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT135" t="n">
         <v>0.95</v>
@@ -28917,7 +28917,7 @@
         <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU140" t="n">
         <v>1.04</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -32365,7 +32365,7 @@
         <v>1.18</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT157" t="n">
         <v>1.14</v>
@@ -32974,7 +32974,7 @@
         <v>1.76</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT160" t="n">
         <v>1.56</v>
@@ -33789,7 +33789,7 @@
         <v>1.56</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AU164" t="n">
         <v>1.22</v>
@@ -36487,7 +36487,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>4725926</v>
+        <v>4725927</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -36507,12 +36507,12 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Raya2</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Tapatío</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -36544,103 +36544,103 @@
         </is>
       </c>
       <c r="Q178" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R178" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S178" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T178" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="U178" t="n">
         <v>2</v>
       </c>
       <c r="V178" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="W178" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X178" t="n">
-        <v>2.58</v>
+        <v>2.55</v>
       </c>
       <c r="Y178" t="n">
-        <v>3.04</v>
+        <v>2.98</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA178" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB178" t="n">
         <v>1.05</v>
       </c>
       <c r="AC178" t="n">
-        <v>2.06</v>
+        <v>2.9</v>
       </c>
       <c r="AD178" t="n">
-        <v>3.15</v>
+        <v>3.13</v>
       </c>
       <c r="AE178" t="n">
-        <v>3.27</v>
+        <v>2.24</v>
       </c>
       <c r="AF178" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AG178" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AH178" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AI178" t="n">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="AJ178" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="AK178" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AL178" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="AM178" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AN178" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO178" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AP178" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AQ178" t="n">
-        <v>0.75</v>
+        <v>1.63</v>
       </c>
       <c r="AR178" t="n">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.11</v>
+        <v>1.53</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AU178" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="AV178" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AW178" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="AX178" t="n">
         <v>0</v>
@@ -36658,7 +36658,7 @@
         <v>1.5</v>
       </c>
       <c r="BC178" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BD178" t="n">
         <v>2.45</v>
@@ -36667,22 +36667,22 @@
         <v>3.4</v>
       </c>
       <c r="BF178" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG178" t="n">
         <v>2</v>
       </c>
       <c r="BH178" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BI178" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ178" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK178" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179">
@@ -36690,7 +36690,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>4725927</v>
+        <v>4725926</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -36710,12 +36710,12 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Tlaxcala</t>
+          <t>Raya2</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Morelia</t>
+          <t>Tapatío</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -36747,103 +36747,103 @@
         </is>
       </c>
       <c r="Q179" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R179" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S179" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T179" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="U179" t="n">
         <v>2</v>
       </c>
       <c r="V179" t="n">
-        <v>2.95</v>
+        <v>3.75</v>
       </c>
       <c r="W179" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X179" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="Y179" t="n">
-        <v>2.98</v>
+        <v>3.04</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB179" t="n">
         <v>1.05</v>
       </c>
       <c r="AC179" t="n">
-        <v>2.9</v>
+        <v>2.06</v>
       </c>
       <c r="AD179" t="n">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="AE179" t="n">
-        <v>2.24</v>
+        <v>3.27</v>
       </c>
       <c r="AF179" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AG179" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="AH179" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AI179" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AJ179" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AK179" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AL179" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AM179" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AN179" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO179" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP179" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR179" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.53</v>
+        <v>1.11</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AU179" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AV179" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AW179" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="AX179" t="n">
         <v>0</v>
@@ -36861,7 +36861,7 @@
         <v>1.5</v>
       </c>
       <c r="BC179" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="BD179" t="n">
         <v>2.45</v>
@@ -36870,22 +36870,22 @@
         <v>3.4</v>
       </c>
       <c r="BF179" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG179" t="n">
         <v>2</v>
       </c>
       <c r="BH179" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
         <v>8</v>
       </c>
-      <c r="BJ179" t="n">
-        <v>10</v>
-      </c>
       <c r="BK179" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
@@ -38455,7 +38455,7 @@
         <v>1.75</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT187" t="n">
         <v>1.45</v>
@@ -40082,7 +40082,7 @@
         <v>1.94</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU195" t="n">
         <v>1.59</v>
@@ -42312,7 +42312,7 @@
         <v>0.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT206" t="n">
         <v>0.29</v>
@@ -43736,7 +43736,7 @@
         <v>1.5</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU213" t="n">
         <v>1.24</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT215" t="n">
         <v>1.82</v>
@@ -46375,7 +46375,7 @@
         <v>1.41</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU226" t="n">
         <v>1.64</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT233" t="n">
         <v>0.71</v>
@@ -50841,7 +50841,7 @@
         <v>1.29</v>
       </c>
       <c r="AT248" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU248" t="n">
         <v>1.09</v>
@@ -51447,7 +51447,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT251" t="n">
         <v>0.79</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT269" t="n">
         <v>1.4</v>
@@ -57134,7 +57134,7 @@
         <v>1.75</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -58552,7 +58552,7 @@
         <v>0.93</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT286" t="n">
         <v>1.06</v>
@@ -58758,7 +58758,7 @@
         <v>1</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU287" t="n">
         <v>1.39</v>
@@ -61803,7 +61803,7 @@
         <v>1.18</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU302" t="n">
         <v>1.39</v>
@@ -62206,7 +62206,7 @@
         <v>1.2</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT304" t="n">
         <v>1.06</v>
@@ -65254,7 +65254,7 @@
         <v>1.71</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AU319" t="n">
         <v>1.43</v>
@@ -65454,7 +65454,7 @@
         <v>0.88</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -67893,7 +67893,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68096,7 +68096,7 @@
         <v>1.56</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AU333" t="n">
         <v>1.41</v>
@@ -68702,7 +68702,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT336" t="n">
         <v>1.27</v>
@@ -68905,7 +68905,7 @@
         <v>1.6</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT337" t="n">
         <v>1.56</v>
@@ -69111,7 +69111,7 @@
         <v>1.89</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AU338" t="n">
         <v>1.86</v>
@@ -69311,7 +69311,7 @@
         <v>2.19</v>
       </c>
       <c r="AS339" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT339" t="n">
         <v>2.11</v>
@@ -69514,7 +69514,7 @@
         <v>1.93</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT340" t="n">
         <v>1.89</v>
@@ -69720,7 +69720,7 @@
         <v>2.11</v>
       </c>
       <c r="AT341" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AU341" t="n">
         <v>1.44</v>
@@ -69920,10 +69920,10 @@
         <v>1.51</v>
       </c>
       <c r="AS342" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AU342" t="n">
         <v>1.66</v>
@@ -70020,17 +70020,17 @@
         <v>1</v>
       </c>
       <c r="L343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M343" t="n">
         <v>2</v>
       </c>
       <c r="N343" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['49', '101']</t>
         </is>
       </c>
       <c r="P343" t="inlineStr">
@@ -70123,10 +70123,10 @@
         <v>1.62</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AU343" t="n">
         <v>1.57</v>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK343"/>
+  <dimension ref="A1:BK344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.68</v>
@@ -3948,7 +3948,7 @@
         <v>1.41</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1.19</v>
@@ -7399,7 +7399,7 @@
         <v>1.11</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU34" t="n">
         <v>0.66</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.14</v>
@@ -11459,7 +11459,7 @@
         <v>1.32</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT62" t="n">
         <v>1.39</v>
@@ -14910,7 +14910,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU71" t="n">
         <v>0.97</v>
@@ -16531,7 +16531,7 @@
         <v>1.25</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.65</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU85" t="n">
         <v>1.22</v>
@@ -18970,7 +18970,7 @@
         <v>1.53</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU91" t="n">
         <v>1.52</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -21812,7 +21812,7 @@
         <v>1.53</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU105" t="n">
         <v>0</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>0.9399999999999999</v>
@@ -26075,7 +26075,7 @@
         <v>1.75</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU126" t="n">
         <v>1.6</v>
@@ -27090,7 +27090,7 @@
         <v>2.41</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU131" t="n">
         <v>1.11</v>
@@ -27899,7 +27899,7 @@
         <v>1.57</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
         <v>0.95</v>
@@ -32165,7 +32165,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AU156" t="n">
         <v>1.41</v>
@@ -33383,7 +33383,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU162" t="n">
         <v>1.41</v>
@@ -34192,7 +34192,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT166" t="n">
         <v>1.16</v>
@@ -34398,7 +34398,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU167" t="n">
         <v>1.54</v>
@@ -35004,7 +35004,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT170" t="n">
         <v>1.44</v>
@@ -35207,7 +35207,7 @@
         <v>2.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT171" t="n">
         <v>2.11</v>
@@ -35413,7 +35413,7 @@
         <v>2.11</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU172" t="n">
         <v>1.17</v>
@@ -38455,10 +38455,10 @@
         <v>1.75</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU187" t="n">
         <v>1.43</v>
@@ -40894,7 +40894,7 @@
         <v>1.71</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU199" t="n">
         <v>1.38</v>
@@ -42312,7 +42312,7 @@
         <v>0.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT206" t="n">
         <v>0.29</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT215" t="n">
         <v>1.82</v>
@@ -44548,7 +44548,7 @@
         <v>1.29</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU217" t="n">
         <v>1.13</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT233" t="n">
         <v>0.71</v>
@@ -49826,7 +49826,7 @@
         <v>2</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU243" t="n">
         <v>1.55</v>
@@ -51447,7 +51447,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT251" t="n">
         <v>0.79</v>
@@ -52668,7 +52668,7 @@
         <v>1.84</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU257" t="n">
         <v>1.41</v>
@@ -54698,7 +54698,7 @@
         <v>1</v>
       </c>
       <c r="AT267" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU267" t="n">
         <v>1.44</v>
@@ -55101,7 +55101,7 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT269" t="n">
         <v>1.4</v>
@@ -58552,7 +58552,7 @@
         <v>0.93</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT286" t="n">
         <v>1.06</v>
@@ -60382,7 +60382,7 @@
         <v>1.5</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU295" t="n">
         <v>1.31</v>
@@ -62206,7 +62206,7 @@
         <v>1.2</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT304" t="n">
         <v>1.06</v>
@@ -63630,7 +63630,7 @@
         <v>1.94</v>
       </c>
       <c r="AT311" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AU311" t="n">
         <v>1.6</v>
@@ -65454,7 +65454,7 @@
         <v>0.88</v>
       </c>
       <c r="AS320" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT320" t="n">
         <v>1</v>
@@ -67690,7 +67690,7 @@
         <v>1.24</v>
       </c>
       <c r="AT331" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU331" t="n">
         <v>1.76</v>
@@ -67893,7 +67893,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AU332" t="n">
         <v>1.5</v>
@@ -68499,7 +68499,7 @@
         <v>1.28</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT335" t="n">
         <v>1.24</v>
@@ -68702,7 +68702,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT336" t="n">
         <v>1.27</v>
@@ -69108,10 +69108,10 @@
         <v>1.49</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT338" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AU338" t="n">
         <v>1.86</v>
@@ -69514,10 +69514,10 @@
         <v>1.93</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT340" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AU340" t="n">
         <v>1.58</v>
@@ -69923,7 +69923,7 @@
         <v>1.6</v>
       </c>
       <c r="AT342" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AU342" t="n">
         <v>1.66</v>
@@ -70123,7 +70123,7 @@
         <v>1.62</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT343" t="n">
         <v>1.6</v>
@@ -70177,6 +70177,209 @@
         <v>-1</v>
       </c>
       <c r="BK343" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>6197690</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Mexico Ascenso MX</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45073.91666666666</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>Tapatío</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>2</v>
+      </c>
+      <c r="J344" t="n">
+        <v>1</v>
+      </c>
+      <c r="K344" t="n">
+        <v>3</v>
+      </c>
+      <c r="L344" t="n">
+        <v>3</v>
+      </c>
+      <c r="M344" t="n">
+        <v>1</v>
+      </c>
+      <c r="N344" t="n">
+        <v>4</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>['10', '29', '58']</t>
+        </is>
+      </c>
+      <c r="P344" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T344" t="n">
+        <v>0</v>
+      </c>
+      <c r="U344" t="n">
+        <v>0</v>
+      </c>
+      <c r="V344" t="n">
+        <v>0</v>
+      </c>
+      <c r="W344" t="n">
+        <v>0</v>
+      </c>
+      <c r="X344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ344" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR344" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS344" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT344" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AU344" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV344" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW344" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE344" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK344" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Mexico Ascenso MX_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="409">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1602,7 +1602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK344"/>
+  <dimension ref="A1:BK345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT10">
         <v>0.29</v>
@@ -4419,7 +4419,7 @@
         <v>1.32</v>
       </c>
       <c r="AT15">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU15">
         <v>1.06</v>
@@ -6135,7 +6135,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT24">
         <v>0.65</v>
@@ -7857,7 +7857,7 @@
         <v>2.41</v>
       </c>
       <c r="AT33">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU33">
         <v>1.42</v>
@@ -8809,7 +8809,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT38">
         <v>1.06</v>
@@ -11104,7 +11104,7 @@
         <v>1.53</v>
       </c>
       <c r="AT50">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU50">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT63">
         <v>1.19</v>
@@ -17022,7 +17022,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT81">
         <v>1.06</v>
@@ -18171,7 +18171,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU87">
         <v>1</v>
@@ -20269,7 +20269,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT98">
         <v>1.4</v>
@@ -21800,7 +21800,7 @@
         <v>1.71</v>
       </c>
       <c r="AT106">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU106">
         <v>1.25</v>
@@ -24089,7 +24089,7 @@
         <v>1.83</v>
       </c>
       <c r="AS118">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT118">
         <v>0.95</v>
@@ -24283,7 +24283,7 @@
         <v>1.5</v>
       </c>
       <c r="AT119">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU119">
         <v>1.05</v>
@@ -29246,10 +29246,10 @@
         <v>0.67</v>
       </c>
       <c r="AS145">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT145">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU145">
         <v>1.82</v>
@@ -30013,7 +30013,7 @@
         <v>1.94</v>
       </c>
       <c r="AT149">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU149">
         <v>1.56</v>
@@ -30777,7 +30777,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU153">
         <v>1.42</v>
@@ -31350,7 +31350,7 @@
         <v>1.16</v>
       </c>
       <c r="AT156">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU156">
         <v>1.41</v>
@@ -32496,7 +32496,7 @@
         <v>1.16</v>
       </c>
       <c r="AT162">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AU162">
         <v>1.41</v>
@@ -33257,7 +33257,7 @@
         <v>1.37</v>
       </c>
       <c r="AS166">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AT166">
         <v>1.16</v>
@@ -33451,7 +33451,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AU167">
         <v>1.54</v>
@@ -34021,7 +34021,7 @@
         <v>1.75</v>
       </c>
       <c r="AS170">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AT170">
         <v>1.44</v>
@@ -34212,7 +34212,7 @@
         <v>2.29</v>
       </c>
       <c r="AS171">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AT171">
         <v>2.11</v>
@@ -34406,7 +34406,7 @@
         <v>2.11</v>
       </c>
       <c r="AT172">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AU172">
         <v>1.17</v>
@@ -35358,7 +35358,7 @@
         <v>0.89</v>
       </c>
       <c r="AS177">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT177">
         <v>0.79</v>
@@ -35743,7 +35743,7 @@
         <v>1.11</v>
       </c>
       <c r="AT179">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU179">
         <v>1.6</v>
@@ -38987,7 +38987,7 @@
         <v>0.25</v>
       </c>
       <c r="AS196">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT196">
         <v>0.71</v>
@@ -39181,7 +39181,7 @@
         <v>1.41</v>
       </c>
       <c r="AT197">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU197">
         <v>1.55</v>
@@ -41279,7 +41279,7 @@
         <v>1</v>
       </c>
       <c r="AS208">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT208">
         <v>1</v>
@@ -44147,7 +44147,7 @@
         <v>2</v>
       </c>
       <c r="AT223">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU223">
         <v>1.58</v>
@@ -45672,7 +45672,7 @@
         <v>1.86</v>
       </c>
       <c r="AS231">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT231">
         <v>1.82</v>
@@ -46439,7 +46439,7 @@
         <v>1.53</v>
       </c>
       <c r="AT235">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU235">
         <v>1.44</v>
@@ -49301,7 +49301,7 @@
         <v>1.69</v>
       </c>
       <c r="AS250">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT250">
         <v>1.39</v>
@@ -51405,7 +51405,7 @@
         <v>1.75</v>
       </c>
       <c r="AT261">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU261">
         <v>1.67</v>
@@ -54461,7 +54461,7 @@
         <v>1.84</v>
       </c>
       <c r="AT277">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU277">
         <v>1.36</v>
@@ -54649,7 +54649,7 @@
         <v>0.93</v>
       </c>
       <c r="AS278">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT278">
         <v>1</v>
@@ -55986,7 +55986,7 @@
         <v>1.12</v>
       </c>
       <c r="AS285">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT285">
         <v>1.14</v>
@@ -57517,7 +57517,7 @@
         <v>1.29</v>
       </c>
       <c r="AT293">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU293">
         <v>1.15</v>
@@ -59806,7 +59806,7 @@
         <v>0.93</v>
       </c>
       <c r="AS305">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT305">
         <v>0.9399999999999999</v>
@@ -60764,7 +60764,7 @@
         <v>1.56</v>
       </c>
       <c r="AT310">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AU310">
         <v>1.26</v>
@@ -63626,7 +63626,7 @@
         <v>0.72</v>
       </c>
       <c r="AS325">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AT325">
         <v>0.68</v>
@@ -64775,7 +64775,7 @@
         <v>1.24</v>
       </c>
       <c r="AT331">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AU331">
         <v>1.76</v>
@@ -64966,7 +64966,7 @@
         <v>1.27</v>
       </c>
       <c r="AT332">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU332">
         <v>1.5</v>
@@ -65536,7 +65536,7 @@
         <v>1.28</v>
       </c>
       <c r="AS335">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AT335">
         <v>1.24</v>
@@ -65727,7 +65727,7 @@
         <v>1.28</v>
       </c>
       <c r="AS336">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT336">
         <v>1.27</v>
@@ -66109,10 +66109,10 @@
         <v>1.49</v>
       </c>
       <c r="AS338">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AT338">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU338">
         <v>1.86</v>
@@ -66491,10 +66491,10 @@
         <v>1.93</v>
       </c>
       <c r="AS340">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT340">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AU340">
         <v>1.58</v>
@@ -66789,82 +66789,82 @@
         <v>407</v>
       </c>
       <c r="Q342">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R342">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S342">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T342">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U342">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V342">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W342">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X342">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y342">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Z342">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AA342">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="AB342">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC342">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AD342">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="AE342">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="AF342">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG342">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AH342">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI342">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="AJ342">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AK342">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AL342">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM342">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN342">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AO342">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP342">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AQ342">
         <v>1.66</v>
@@ -66876,7 +66876,7 @@
         <v>1.6</v>
       </c>
       <c r="AT342">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU342">
         <v>1.66</v>
@@ -66912,22 +66912,22 @@
         <v>0</v>
       </c>
       <c r="BF342">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG342">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH342">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI342">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ342">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK342">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" spans="1:63">
@@ -66980,82 +66980,82 @@
         <v>408</v>
       </c>
       <c r="Q343">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R343">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="S343">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="T343">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="U343">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="V343">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="W343">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X343">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Y343">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="Z343">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AA343">
-        <v>0</v>
+        <v>7.36</v>
       </c>
       <c r="AB343">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC343">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD343">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AE343">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AF343">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG343">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AH343">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AI343">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AJ343">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AK343">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AL343">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM343">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN343">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AO343">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AP343">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AQ343">
         <v>1.55</v>
@@ -67064,7 +67064,7 @@
         <v>1.62</v>
       </c>
       <c r="AS343">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT343">
         <v>1.6</v>
@@ -67079,46 +67079,46 @@
         <v>2.78</v>
       </c>
       <c r="AX343">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AY343">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AZ343">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="BA343">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB343">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BC343">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BD343">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="BE343">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BF343">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BG343">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH343">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI343">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ343">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BK343">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:63">
@@ -67171,82 +67171,82 @@
         <v>270</v>
       </c>
       <c r="Q344">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R344">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S344">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T344">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U344">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V344">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W344">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X344">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Y344">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AA344">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB344">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AC344">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AD344">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE344">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AF344">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AG344">
-        <v>0</v>
+        <v>6.21</v>
       </c>
       <c r="AH344">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AI344">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AJ344">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AK344">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AL344">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AM344">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AN344">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AO344">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AP344">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AQ344">
         <v>1.54</v>
@@ -67255,19 +67255,19 @@
         <v>1.89</v>
       </c>
       <c r="AS344">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT344">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="AU344">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AV344">
         <v>1.38</v>
       </c>
       <c r="AW344">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AX344">
         <v>0</v>
@@ -67279,37 +67279,228 @@
         <v>0</v>
       </c>
       <c r="BA344">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BB344">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BC344">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BD344">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BE344">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="BF344">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG344">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH344">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI344">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ344">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK344">
-        <v>-1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:63">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>6197691</v>
+      </c>
+      <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45080.91666666666</v>
+      </c>
+      <c r="F345">
+        <v>0</v>
+      </c>
+      <c r="G345" t="s">
+        <v>73</v>
+      </c>
+      <c r="H345" t="s">
+        <v>70</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>1</v>
+      </c>
+      <c r="O345" t="s">
+        <v>290</v>
+      </c>
+      <c r="P345" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q345">
+        <v>11</v>
+      </c>
+      <c r="R345">
+        <v>1</v>
+      </c>
+      <c r="S345">
+        <v>12</v>
+      </c>
+      <c r="T345">
+        <v>2.63</v>
+      </c>
+      <c r="U345">
+        <v>2.1</v>
+      </c>
+      <c r="V345">
+        <v>4</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+      <c r="AB345">
+        <v>0</v>
+      </c>
+      <c r="AC345">
+        <v>1.75</v>
+      </c>
+      <c r="AD345">
+        <v>3.19</v>
+      </c>
+      <c r="AE345">
+        <v>4</v>
+      </c>
+      <c r="AF345">
+        <v>0</v>
+      </c>
+      <c r="AG345">
+        <v>0</v>
+      </c>
+      <c r="AH345">
+        <v>0</v>
+      </c>
+      <c r="AI345">
+        <v>0</v>
+      </c>
+      <c r="AJ345">
+        <v>2.08</v>
+      </c>
+      <c r="AK345">
+        <v>1.73</v>
+      </c>
+      <c r="AL345">
+        <v>0</v>
+      </c>
+      <c r="AM345">
+        <v>0</v>
+      </c>
+      <c r="AN345">
+        <v>0</v>
+      </c>
+      <c r="AO345">
+        <v>0</v>
+      </c>
+      <c r="AP345">
+        <v>0</v>
+      </c>
+      <c r="AQ345">
+        <v>1.84</v>
+      </c>
+      <c r="AR345">
+        <v>1.57</v>
+      </c>
+      <c r="AS345">
+        <v>1.87</v>
+      </c>
+      <c r="AT345">
+        <v>1.53</v>
+      </c>
+      <c r="AU345">
+        <v>1.86</v>
+      </c>
+      <c r="AV345">
+        <v>1.22</v>
+      </c>
+      <c r="AW345">
+        <v>3.08</v>
+      </c>
+      <c r="AX345">
+        <v>0</v>
+      </c>
+      <c r="AY345">
+        <v>0</v>
+      </c>
+      <c r="AZ345">
+        <v>0</v>
+      </c>
+      <c r="BA345">
+        <v>0</v>
+      </c>
+      <c r="BB345">
+        <v>0</v>
+      </c>
+      <c r="BC345">
+        <v>0</v>
+      </c>
+      <c r="BD345">
+        <v>0</v>
+      </c>
+      <c r="BE345">
+        <v>0</v>
+      </c>
+      <c r="BF345">
+        <v>6</v>
+      </c>
+      <c r="BG345">
+        <v>2</v>
+      </c>
+      <c r="BH345">
+        <v>14</v>
+      </c>
+      <c r="BI345">
+        <v>0</v>
+      </c>
+      <c r="BJ345">
+        <v>20</v>
+      </c>
+      <c r="BK345">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
